--- a/DDAf_2023_Tableau_annexe_Tab30.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F5A40E-60C8-46C8-AF1C-24A4AF7DA9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB4FAA4D-1722-4535-A807-519775CF39E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{6A062786-B3EF-4ABE-9CCC-7F2672FE64B0}"/>
+    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{A782951B-88B5-4FAA-99C2-E7A5FA0D7408}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3AEFEE-C94E-405A-AD1F-7F07B4C20A37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103EF36D-C0AC-47CB-B4C9-9BFAAF4CC87F}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -2424,10 +2424,10 @@
         <v>239.960588364899</v>
       </c>
       <c r="G13" s="31">
-        <v>3.8233090535860099</v>
+        <v>3.8232899426087101</v>
       </c>
       <c r="H13" s="32">
-        <v>6.0675730062582804</v>
+        <v>6.0675759319709703</v>
       </c>
       <c r="I13" s="29">
         <v>73079</v>
@@ -2442,10 +2442,10 @@
         <v>154.90191934504301</v>
       </c>
       <c r="M13" s="31">
-        <v>2.3144149580106199</v>
+        <v>2.3143969157089601</v>
       </c>
       <c r="N13" s="32">
-        <v>4.4166391383580104</v>
+        <v>4.4166704886044803</v>
       </c>
       <c r="O13" s="32">
         <v>6.5173000932827101</v>
@@ -3254,10 +3254,10 @@
         <v>55.941530659303197</v>
       </c>
       <c r="G23" s="31">
-        <v>3.1196165441509698</v>
+        <v>3.1035845591530702</v>
       </c>
       <c r="H23" s="32">
-        <v>6.8698350354042299</v>
+        <v>6.84518140226076</v>
       </c>
       <c r="I23" s="29">
         <v>108015</v>
@@ -3272,10 +3272,10 @@
         <v>102.614885484895</v>
       </c>
       <c r="M23" s="31">
-        <v>5.7148573643591201</v>
+        <v>5.7223818562038904</v>
       </c>
       <c r="N23" s="32">
-        <v>13.062917258043999</v>
+        <v>13.13257770968</v>
       </c>
       <c r="O23" s="32">
         <v>10.6195422659265</v>
@@ -4497,10 +4497,10 @@
         <v>33.978604430136599</v>
       </c>
       <c r="G38" s="31">
-        <v>1.3189238854349701</v>
+        <v>1.3236006663155799</v>
       </c>
       <c r="H38" s="32">
-        <v>3.3003501434702098</v>
+        <v>3.3057872835409698</v>
       </c>
       <c r="I38" s="29">
         <v>232273</v>
@@ -4515,10 +4515,10 @@
         <v>158.25531077769</v>
       </c>
       <c r="M38" s="31">
-        <v>6.1722319997295401</v>
+        <v>6.1651227782007902</v>
       </c>
       <c r="N38" s="32">
-        <v>17.112519729439398</v>
+        <v>17.0923600897172</v>
       </c>
       <c r="O38" s="32">
         <v>5.5863544031636296</v>
@@ -5078,10 +5078,10 @@
         <v>982.67086028343897</v>
       </c>
       <c r="G45" s="31">
-        <v>8.4075494617968207</v>
+        <v>8.4204550988883593</v>
       </c>
       <c r="H45" s="32">
-        <v>21.0295508961742</v>
+        <v>21.0528836209864</v>
       </c>
       <c r="I45" s="29">
         <v>3055</v>
@@ -5096,10 +5096,10 @@
         <v>11.135804655657401</v>
       </c>
       <c r="M45" s="31">
-        <v>0.11257945047084</v>
+        <v>0.11268827452914</v>
       </c>
       <c r="N45" s="32">
-        <v>0.27778831556076999</v>
+        <v>0.27802832054030002</v>
       </c>
       <c r="O45" s="32">
         <v>15.489039176129101</v>
@@ -6404,10 +6404,10 @@
         <v>159.3988831314</v>
       </c>
       <c r="G61" s="31">
-        <v>3.79534106225733</v>
+        <v>3.7948047935917502</v>
       </c>
       <c r="H61" s="32">
-        <v>7.66180598264613</v>
+        <v>7.66096101048152</v>
       </c>
       <c r="I61" s="29">
         <v>280512</v>
@@ -6422,10 +6422,10 @@
         <v>322.94268224011302</v>
       </c>
       <c r="M61" s="31">
-        <v>7.7865508438400699</v>
+        <v>7.7870874830496302</v>
       </c>
       <c r="N61" s="32">
-        <v>15.7644181908117</v>
+        <v>15.766067955974901</v>
       </c>
       <c r="O61" s="32">
         <v>7.79285873862852</v>
@@ -6485,10 +6485,10 @@
         <v>262.61550122536102</v>
       </c>
       <c r="G62" s="43">
-        <v>5.12423913386605</v>
+        <v>5.1252585815629201</v>
       </c>
       <c r="H62" s="44">
-        <v>11.6189599578724</v>
+        <v>11.617925021089</v>
       </c>
       <c r="I62" s="41">
         <v>696934</v>
@@ -6503,10 +6503,10 @@
         <v>178.01292164017599</v>
       </c>
       <c r="M62" s="43">
-        <v>3.5845190377135099</v>
+        <v>3.5879847362866202</v>
       </c>
       <c r="N62" s="44">
-        <v>7.9148413441868097</v>
+        <v>7.9251220421018296</v>
       </c>
       <c r="O62" s="44">
         <v>8.5209600582440892</v>
@@ -6566,10 +6566,10 @@
         <v>935.14943449997702</v>
       </c>
       <c r="G63" s="48">
-        <v>4.9545424087745804</v>
+        <v>4.9552065252522803</v>
       </c>
       <c r="H63" s="49">
-        <v>9.9793015530314193</v>
+        <v>9.9898682256697704</v>
       </c>
       <c r="I63" s="46">
         <v>1614783</v>
@@ -6584,10 +6584,10 @@
         <v>255.950200353588</v>
       </c>
       <c r="M63" s="48">
-        <v>1.35744761270797</v>
+        <v>1.35732190175552</v>
       </c>
       <c r="N63" s="49">
-        <v>2.68018351367872</v>
+        <v>2.6799058583351698</v>
       </c>
       <c r="O63" s="49">
         <v>55.267983698248301</v>
@@ -6647,10 +6647,10 @@
         <v>411.044203110556</v>
       </c>
       <c r="G64" s="43">
-        <v>2.8360883224860398</v>
+        <v>2.8365064013866799</v>
       </c>
       <c r="H64" s="44">
-        <v>7.5376328515915496</v>
+        <v>7.5380744412778702</v>
       </c>
       <c r="I64" s="41">
         <v>59309</v>
@@ -6665,10 +6665,10 @@
         <v>110.162902657863</v>
       </c>
       <c r="M64" s="43">
-        <v>0.76507236430248005</v>
+        <v>0.76499479143844995</v>
       </c>
       <c r="N64" s="44">
-        <v>2.0572112553255</v>
+        <v>2.0570041628457099</v>
       </c>
       <c r="O64" s="44">
         <v>12.4613189434214</v>
@@ -6728,10 +6728,10 @@
         <v>909.37588615385096</v>
       </c>
       <c r="G65" s="54">
-        <v>8.5662197848190509</v>
+        <v>8.5657940914746291</v>
       </c>
       <c r="H65" s="55">
-        <v>16.7440147808889</v>
+        <v>16.743336431588101</v>
       </c>
       <c r="I65" s="52">
         <v>1518184</v>
@@ -6746,10 +6746,10 @@
         <v>356.32571336973899</v>
       </c>
       <c r="M65" s="54">
-        <v>3.4090056441121201</v>
+        <v>3.40945624392285</v>
       </c>
       <c r="N65" s="55">
-        <v>6.72065397205332</v>
+        <v>6.7215684546421297</v>
       </c>
       <c r="O65" s="55">
         <v>72.301921855597996</v>
@@ -6809,10 +6809,10 @@
         <v>823.85477370668002</v>
       </c>
       <c r="G66" s="59">
-        <v>4.9630302883026003</v>
+        <v>4.9637099360933901</v>
       </c>
       <c r="H66" s="60">
-        <v>10.0613138782539</v>
+        <v>10.071278801375</v>
       </c>
       <c r="I66" s="57">
         <v>2311717</v>
@@ -6827,10 +6827,10 @@
         <v>243.052705419277</v>
       </c>
       <c r="M66" s="59">
-        <v>1.4688411233696801</v>
+        <v>1.4688656427812401</v>
       </c>
       <c r="N66" s="60">
-        <v>2.94201028147162</v>
+        <v>2.9421915908846699</v>
       </c>
       <c r="O66" s="60">
         <v>47.237306905507197</v>
@@ -6890,10 +6890,10 @@
         <v>307.12593240186402</v>
       </c>
       <c r="G67" s="64">
-        <v>6.32429811012992</v>
+        <v>6.3250476831508902</v>
       </c>
       <c r="H67" s="65">
-        <v>15.8097932648745</v>
+        <v>15.8096153138454</v>
       </c>
       <c r="I67" s="62">
         <v>285276</v>
@@ -6908,10 +6908,10 @@
         <v>98.074989499631798</v>
       </c>
       <c r="M67" s="64">
-        <v>2.2853681143972802</v>
+        <v>2.28516070623238</v>
       </c>
       <c r="N67" s="65">
-        <v>6.4069339501545199</v>
+        <v>6.4088794278249104</v>
       </c>
       <c r="O67" s="65">
         <v>8.8461323729727894</v>
@@ -6971,10 +6971,10 @@
         <v>413.62987665352199</v>
       </c>
       <c r="G68" s="54">
-        <v>6.61787463483717</v>
+        <v>6.62122909374893</v>
       </c>
       <c r="H68" s="55">
-        <v>15.338829391167801</v>
+        <v>15.348313728070099</v>
       </c>
       <c r="I68" s="52">
         <v>350267</v>
@@ -6989,10 +6989,10 @@
         <v>230.78856152885001</v>
       </c>
       <c r="M68" s="54">
-        <v>3.8109996534833899</v>
+        <v>3.8073213204125702</v>
       </c>
       <c r="N68" s="55">
-        <v>7.6764250025959004</v>
+        <v>7.6693119122204099</v>
       </c>
       <c r="O68" s="55">
         <v>9.97160661342126</v>
@@ -7052,10 +7052,10 @@
         <v>34.893218731310398</v>
       </c>
       <c r="G69" s="54">
-        <v>1.29715954219583</v>
+        <v>1.29717775044828</v>
       </c>
       <c r="H69" s="55">
-        <v>3.2269466103027402</v>
+        <v>3.2269218576216101</v>
       </c>
       <c r="I69" s="52">
         <v>109425</v>
@@ -7070,10 +7070,10 @@
         <v>176.15395701646099</v>
       </c>
       <c r="M69" s="54">
-        <v>6.4352351406907999</v>
+        <v>6.4354124340619601</v>
       </c>
       <c r="N69" s="55">
-        <v>15.9160079773799</v>
+        <v>15.9160719983542</v>
       </c>
       <c r="O69" s="55">
         <v>5.0759368354654599</v>
@@ -7133,10 +7133,10 @@
         <v>65.588275118032499</v>
       </c>
       <c r="G70" s="54">
-        <v>2.63464661669417</v>
+        <v>2.6283535672707901</v>
       </c>
       <c r="H70" s="55">
-        <v>6.1304940832617696</v>
+        <v>6.1207802090208601</v>
       </c>
       <c r="I70" s="52">
         <v>124209</v>
@@ -7151,10 +7151,10 @@
         <v>119.49728582703599</v>
       </c>
       <c r="M70" s="54">
-        <v>4.7855716914462603</v>
+        <v>4.7950983125524997</v>
       </c>
       <c r="N70" s="55">
-        <v>11.5072826682604</v>
+        <v>11.5554374270717</v>
       </c>
       <c r="O70" s="55">
         <v>9.6970578728711594</v>
@@ -7214,10 +7214,10 @@
         <v>159.3988831314</v>
       </c>
       <c r="G71" s="54">
-        <v>3.79534106225733</v>
+        <v>3.7948047935917502</v>
       </c>
       <c r="H71" s="55">
-        <v>7.6618059826461398</v>
+        <v>7.66096101048152</v>
       </c>
       <c r="I71" s="52">
         <v>280512</v>
@@ -7232,10 +7232,10 @@
         <v>322.94268224011302</v>
       </c>
       <c r="M71" s="54">
-        <v>7.7865508438400699</v>
+        <v>7.7870874830496302</v>
       </c>
       <c r="N71" s="55">
-        <v>15.7644181908117</v>
+        <v>15.766067955974901</v>
       </c>
       <c r="O71" s="55">
         <v>7.79285873862852</v>
@@ -7295,10 +7295,10 @@
         <v>28.9689793653381</v>
       </c>
       <c r="G72" s="54">
-        <v>1.1312610233612701</v>
+        <v>1.13126521276418</v>
       </c>
       <c r="H72" s="55">
-        <v>3.15243591243344</v>
+        <v>3.1524196889997498</v>
       </c>
       <c r="I72" s="52">
         <v>163615</v>
@@ -7313,10 +7313,10 @@
         <v>145.57196229839801</v>
       </c>
       <c r="M72" s="54">
-        <v>5.71017611325823</v>
+        <v>5.7101988389666403</v>
       </c>
       <c r="N72" s="55">
-        <v>17.097199314733</v>
+        <v>17.0971781791146</v>
       </c>
       <c r="O72" s="55">
         <v>6.1114950330639903</v>
@@ -7376,10 +7376,10 @@
         <v>135.19491260158301</v>
       </c>
       <c r="G73" s="54">
-        <v>3.37425769494897</v>
+        <v>3.3716196462049099</v>
       </c>
       <c r="H73" s="55">
-        <v>5.5766064097649304</v>
+        <v>5.57524911130447</v>
       </c>
       <c r="I73" s="52">
         <v>192307</v>
@@ -7394,10 +7394,10 @@
         <v>141.34775309031301</v>
       </c>
       <c r="M73" s="54">
-        <v>3.32213463905742</v>
+        <v>3.32629819424784</v>
       </c>
       <c r="N73" s="55">
-        <v>7.2522638363487797</v>
+        <v>7.2730716827344404</v>
       </c>
       <c r="O73" s="55">
         <v>6.9855418194860102</v>
@@ -7457,10 +7457,10 @@
         <v>655.73767223287996</v>
       </c>
       <c r="G74" s="54">
-        <v>6.4735671386677804</v>
+        <v>6.4807275119808301</v>
       </c>
       <c r="H74" s="55">
-        <v>16.553613731222399</v>
+        <v>16.556241861913101</v>
       </c>
       <c r="I74" s="52">
         <v>2982</v>
@@ -7475,10 +7475,10 @@
         <v>21.5781939058832</v>
       </c>
       <c r="M74" s="54">
-        <v>0.22968200204912001</v>
+        <v>0.23114779215431</v>
       </c>
       <c r="N74" s="55">
-        <v>0.56693980510177999</v>
+        <v>0.57049791566056995</v>
       </c>
       <c r="O74" s="55">
         <v>15.743241880128901</v>
@@ -7619,10 +7619,10 @@
         <v>497.398462334432</v>
       </c>
       <c r="G76" s="64">
-        <v>4.0765493732276203</v>
+        <v>4.0765025159190396</v>
       </c>
       <c r="H76" s="65">
-        <v>9.7398317222262403</v>
+        <v>9.7396446170705904</v>
       </c>
       <c r="I76" s="62">
         <v>229941</v>
@@ -7637,10 +7637,10 @@
         <v>351.66947067633703</v>
       </c>
       <c r="M76" s="64">
-        <v>2.8934482235198802</v>
+        <v>2.8938185005195698</v>
       </c>
       <c r="N76" s="65">
-        <v>6.1253436948986399</v>
+        <v>6.1258311626315898</v>
       </c>
       <c r="O76" s="65">
         <v>13.6609909640891</v>
@@ -7700,10 +7700,10 @@
         <v>381.49775458428599</v>
       </c>
       <c r="G77" s="54">
-        <v>2.7252646719556299</v>
+        <v>2.7252611013311201</v>
       </c>
       <c r="H77" s="55">
-        <v>7.3223726683941104</v>
+        <v>7.3223615507939099</v>
       </c>
       <c r="I77" s="52">
         <v>24135</v>
@@ -7718,10 +7718,10 @@
         <v>83.965943213259195</v>
       </c>
       <c r="M77" s="54">
-        <v>0.58643445110517001</v>
+        <v>0.58643690197107001</v>
       </c>
       <c r="N77" s="55">
-        <v>1.63046428769772</v>
+        <v>1.6304713355768901</v>
       </c>
       <c r="O77" s="55">
         <v>12.0341926668172</v>
@@ -7781,10 +7781,10 @@
         <v>1461.6650047216101</v>
       </c>
       <c r="G78" s="54">
-        <v>3.4943100199821999</v>
+        <v>3.4952498475670399</v>
       </c>
       <c r="H78" s="55">
-        <v>5.3009708786492196</v>
+        <v>5.3015030209817704</v>
       </c>
       <c r="I78" s="52">
         <v>9423</v>
@@ -7799,10 +7799,10 @@
         <v>66.380226998324602</v>
       </c>
       <c r="M78" s="54">
-        <v>0.15664384867326001</v>
+        <v>0.15683436540539</v>
       </c>
       <c r="N78" s="55">
-        <v>0.17419003740295999</v>
+        <v>0.17435280388095001</v>
       </c>
       <c r="O78" s="55">
         <v>31.730660108173002</v>
@@ -7862,10 +7862,10 @@
         <v>1047.4878510532101</v>
       </c>
       <c r="G79" s="59">
-        <v>2.4396248732705401</v>
+        <v>2.4396252356936601</v>
       </c>
       <c r="H79" s="60">
-        <v>4.9926990893639998</v>
+        <v>4.9926397402272</v>
       </c>
       <c r="I79" s="57">
         <v>18287</v>
@@ -7880,10 +7880,10 @@
         <v>32.185890099389901</v>
       </c>
       <c r="M79" s="59">
-        <v>7.5971720089890005E-2</v>
+        <v>7.6000109315329994E-2</v>
       </c>
       <c r="N79" s="60">
-        <v>0.16660703034070001</v>
+        <v>0.16665436551012999</v>
       </c>
       <c r="O79" s="60">
         <v>28.202971854713301</v>
@@ -7943,10 +7943,10 @@
         <v>266.63264616240502</v>
       </c>
       <c r="G80" s="64">
-        <v>4.2825110172179501</v>
+        <v>4.2776910123578098</v>
       </c>
       <c r="H80" s="65">
-        <v>10.5288097044059</v>
+        <v>10.506479961256</v>
       </c>
       <c r="I80" s="62">
         <v>159223</v>
@@ -7961,10 +7961,10 @@
         <v>285.629016110625</v>
       </c>
       <c r="M80" s="64">
-        <v>4.5248844424600696</v>
+        <v>4.5424646131336104</v>
       </c>
       <c r="N80" s="65">
-        <v>9.0624966491301304</v>
+        <v>9.0976797064157697</v>
       </c>
       <c r="O80" s="65">
         <v>8.5799397792860894</v>
@@ -8024,10 +8024,10 @@
         <v>1009.01280874751</v>
       </c>
       <c r="G81" s="54">
-        <v>5.0628515391195901</v>
+        <v>5.0614930615822198</v>
       </c>
       <c r="H81" s="55">
-        <v>14.0573342793744</v>
+        <v>14.139338064116799</v>
       </c>
       <c r="I81" s="52">
         <v>31441</v>
@@ -8042,10 +8042,10 @@
         <v>51.980400913448797</v>
       </c>
       <c r="M81" s="54">
-        <v>0.24791182233598999</v>
+        <v>0.24656768288457001</v>
       </c>
       <c r="N81" s="55">
-        <v>0.43823851361115002</v>
+        <v>0.43615820565102997</v>
       </c>
       <c r="O81" s="55">
         <v>11.043695530192499</v>
@@ -8105,10 +8105,10 @@
         <v>261.268907798052</v>
       </c>
       <c r="G82" s="54">
-        <v>5.5127262697903401</v>
+        <v>5.5140858198604299</v>
       </c>
       <c r="H82" s="55">
-        <v>12.1221026488672</v>
+        <v>12.127807806646199</v>
       </c>
       <c r="I82" s="52">
         <v>537711</v>
@@ -8123,10 +8123,10 @@
         <v>141.938762565106</v>
       </c>
       <c r="M82" s="54">
-        <v>3.1505073234951002</v>
+        <v>3.15011076846478</v>
       </c>
       <c r="N82" s="55">
-        <v>7.3851580490377904</v>
+        <v>7.3872034443110399</v>
       </c>
       <c r="O82" s="55">
         <v>8.5025522827254001</v>
@@ -8186,10 +8186,10 @@
         <v>928.89080609407995</v>
       </c>
       <c r="G83" s="59">
-        <v>4.9445632163450703</v>
+        <v>4.9453460168992898</v>
       </c>
       <c r="H83" s="60">
-        <v>9.6035670865060592</v>
+        <v>9.6049099476477604</v>
       </c>
       <c r="I83" s="57">
         <v>1583342</v>
@@ -8204,10 +8204,10 @@
         <v>273.233071515728</v>
       </c>
       <c r="M83" s="59">
-        <v>1.45967603171825</v>
+        <v>1.46036977245948</v>
       </c>
       <c r="N83" s="60">
-        <v>2.8867478217918099</v>
+        <v>2.8880647958192101</v>
       </c>
       <c r="O83" s="60">
         <v>58.978843515289398</v>
@@ -8267,10 +8267,10 @@
         <v>19.194354123591399</v>
       </c>
       <c r="G84" s="64">
-        <v>1.16932447567044</v>
+        <v>1.16981847410522</v>
       </c>
       <c r="H84" s="65">
-        <v>3.1890953367969002</v>
+        <v>3.1920298551358202</v>
       </c>
       <c r="I84" s="62">
         <v>407558</v>
@@ -8285,10 +8285,10 @@
         <v>125.655010559193</v>
       </c>
       <c r="M84" s="64">
-        <v>7.6280162132637699</v>
+        <v>7.6258954187636903</v>
       </c>
       <c r="N84" s="65">
-        <v>20.590101526237699</v>
+        <v>20.592975240407402</v>
       </c>
       <c r="O84" s="65">
         <v>7.2905196008218001</v>
@@ -8348,10 +8348,10 @@
         <v>58.046573859246699</v>
       </c>
       <c r="G85" s="54">
-        <v>2.9977442297079002</v>
+        <v>2.9977510548676598</v>
       </c>
       <c r="H85" s="55">
-        <v>9.0539581691341606</v>
+        <v>9.0539782700017106</v>
       </c>
       <c r="I85" s="52">
         <v>69410</v>
@@ -8366,10 +8366,10 @@
         <v>111.902081701722</v>
       </c>
       <c r="M85" s="54">
-        <v>5.6362482450854996</v>
+        <v>5.6362307228256698</v>
       </c>
       <c r="N85" s="55">
-        <v>17.090027035938199</v>
+        <v>17.0899731485061</v>
       </c>
       <c r="O85" s="55">
         <v>42.285361048519299</v>
@@ -8429,10 +8429,10 @@
         <v>390.53733981303202</v>
       </c>
       <c r="G86" s="54">
-        <v>5.9642615100937704</v>
+        <v>5.9686185909816301</v>
       </c>
       <c r="H86" s="55">
-        <v>13.9414049795121</v>
+        <v>13.946863752426299</v>
       </c>
       <c r="I86" s="52">
         <v>283200</v>
@@ -8447,10 +8447,10 @@
         <v>220.15912066125799</v>
       </c>
       <c r="M86" s="54">
-        <v>3.5080561322788499</v>
+        <v>3.5114542190289901</v>
       </c>
       <c r="N86" s="55">
-        <v>7.1862907360644304</v>
+        <v>7.1934129627193899</v>
       </c>
       <c r="O86" s="55">
         <v>9.2897859841925001</v>
@@ -8510,10 +8510,10 @@
         <v>488.52676606593201</v>
       </c>
       <c r="G87" s="54">
-        <v>6.7062205201128604</v>
+        <v>6.7069917560805097</v>
       </c>
       <c r="H87" s="55">
-        <v>13.675013874909601</v>
+        <v>13.6762043480241</v>
       </c>
       <c r="I87" s="52">
         <v>1114555</v>
@@ -8528,10 +8528,10 @@
         <v>329.729276079366</v>
       </c>
       <c r="M87" s="54">
-        <v>4.5570405511495897</v>
+        <v>4.55701134056046</v>
       </c>
       <c r="N87" s="55">
-        <v>9.3297815596048199</v>
+        <v>9.3294750770453501</v>
       </c>
       <c r="O87" s="55">
         <v>78.598230544894605</v>
@@ -8591,10 +8591,10 @@
         <v>608.62040274833896</v>
       </c>
       <c r="G88" s="54">
-        <v>4.7095977645390397</v>
+        <v>4.7100821236573998</v>
       </c>
       <c r="H88" s="55">
-        <v>8.5814656885541201</v>
+        <v>8.5808026709273602</v>
       </c>
       <c r="I88" s="52">
         <v>6176</v>
@@ -8609,10 +8609,10 @@
         <v>114.872224520693</v>
       </c>
       <c r="M88" s="54">
-        <v>0.84878033347365001</v>
+        <v>0.84810376499089002</v>
       </c>
       <c r="N88" s="55">
-        <v>1.31284643640478</v>
+        <v>1.31179073242942</v>
       </c>
       <c r="O88" s="55">
         <v>10.281869830323</v>
@@ -8672,10 +8672,10 @@
         <v>1344.2695061919701</v>
       </c>
       <c r="G89" s="54">
-        <v>7.7602030163867601</v>
+        <v>7.7603079984928502</v>
       </c>
       <c r="H89" s="55">
-        <v>14.594257998999</v>
+        <v>14.593895113401601</v>
       </c>
       <c r="I89" s="52">
         <v>424815</v>
@@ -8690,10 +8690,10 @@
         <v>298.96534520655899</v>
       </c>
       <c r="M89" s="54">
-        <v>1.71430638466323</v>
+        <v>1.7143155773396299</v>
       </c>
       <c r="N89" s="55">
-        <v>3.2372155982798199</v>
+        <v>3.23709719108105</v>
       </c>
       <c r="O89" s="55">
         <v>44.312068612148998</v>
@@ -8753,10 +8753,10 @@
         <v>1145.0980456013499</v>
       </c>
       <c r="G90" s="59">
-        <v>2.3677526690379298</v>
+        <v>2.37053073981303</v>
       </c>
       <c r="H90" s="60">
-        <v>5.4472040044082597</v>
+        <v>5.4716463921109</v>
       </c>
       <c r="I90" s="57">
         <v>5915</v>
@@ -8771,10 +8771,10 @@
         <v>17.474969937162498</v>
       </c>
       <c r="M90" s="59">
-        <v>3.5908518299230002E-2</v>
+        <v>3.5896824012700002E-2</v>
       </c>
       <c r="N90" s="60">
-        <v>5.2302713327969999E-2</v>
+        <v>5.2322906425920003E-2</v>
       </c>
       <c r="O90" s="60">
         <v>28.7418315342419</v>
@@ -8834,10 +8834,10 @@
         <v>32.975695052719303</v>
       </c>
       <c r="G91" s="64">
-        <v>1.5491331236204</v>
+        <v>1.54857733157056</v>
       </c>
       <c r="H91" s="65">
-        <v>3.9185808281624599</v>
+        <v>3.9187426536746899</v>
       </c>
       <c r="I91" s="62">
         <v>486918</v>
@@ -8852,10 +8852,10 @@
         <v>149.706829497011</v>
       </c>
       <c r="M91" s="64">
-        <v>6.9979883859972203</v>
+        <v>6.9980940424756701</v>
       </c>
       <c r="N91" s="65">
-        <v>17.7916422490812</v>
+        <v>17.799520668098399</v>
       </c>
       <c r="O91" s="65">
         <v>6.7732861926830399</v>
@@ -8915,10 +8915,10 @@
         <v>205.36737924542101</v>
       </c>
       <c r="G92" s="54">
-        <v>5.1799593654404203</v>
+        <v>5.1797867808561104</v>
       </c>
       <c r="H92" s="55">
-        <v>11.622651485587401</v>
+        <v>11.622236748082299</v>
       </c>
       <c r="I92" s="52">
         <v>238734</v>
@@ -8933,10 +8933,10 @@
         <v>333.00788968536699</v>
       </c>
       <c r="M92" s="54">
-        <v>8.1935618632149794</v>
+        <v>8.1936828318877701</v>
       </c>
       <c r="N92" s="55">
-        <v>17.897424898186301</v>
+        <v>17.897590680954199</v>
       </c>
       <c r="O92" s="55">
         <v>54.139079457698699</v>
@@ -8996,10 +8996,10 @@
         <v>404.46612731800502</v>
       </c>
       <c r="G93" s="54">
-        <v>4.7073221036624204</v>
+        <v>4.7192862408085299</v>
       </c>
       <c r="H93" s="55">
-        <v>8.0750863833572808</v>
+        <v>8.0703575423847695</v>
       </c>
       <c r="I93" s="52">
         <v>2391</v>
@@ -9014,10 +9014,10 @@
         <v>131.66545154532301</v>
       </c>
       <c r="M93" s="54">
-        <v>1.7130545092234799</v>
+        <v>1.67659206567248</v>
       </c>
       <c r="N93" s="55">
-        <v>3.9354990975247399</v>
+        <v>3.8493932327855398</v>
       </c>
       <c r="O93" s="55">
         <v>4.4411050922922204</v>
@@ -9077,10 +9077,10 @@
         <v>537.98044744880701</v>
       </c>
       <c r="G94" s="54">
-        <v>2.7232451515251399</v>
+        <v>2.7264492781540799</v>
       </c>
       <c r="H94" s="55">
-        <v>10.896133130598001</v>
+        <v>10.8970337655085</v>
       </c>
       <c r="I94" s="52">
         <v>28114</v>
@@ -9095,10 +9095,10 @@
         <v>248.90341781324199</v>
       </c>
       <c r="M94" s="54">
-        <v>1.25730090041276</v>
+        <v>1.25568164866865</v>
       </c>
       <c r="N94" s="55">
-        <v>2.2842177260976499</v>
+        <v>2.2815276944946801</v>
       </c>
       <c r="O94" s="55">
         <v>5.85415792776356</v>
@@ -9158,10 +9158,10 @@
         <v>32.505210771318303</v>
       </c>
       <c r="G95" s="54">
-        <v>1.4663840285449099</v>
+        <v>1.4664090833735199</v>
       </c>
       <c r="H95" s="55">
-        <v>3.3153619381596502</v>
+        <v>3.31537751455883</v>
       </c>
       <c r="I95" s="52">
         <v>249366</v>
@@ -9176,10 +9176,10 @@
         <v>153.94291665227601</v>
       </c>
       <c r="M95" s="54">
-        <v>7.2142930290484397</v>
+        <v>7.2155228838800998</v>
       </c>
       <c r="N95" s="55">
-        <v>18.368008156861901</v>
+        <v>18.369664701881799</v>
       </c>
       <c r="O95" s="55">
         <v>6.56927891669066</v>
@@ -9239,10 +9239,10 @@
         <v>535.41497958265904</v>
       </c>
       <c r="G96" s="59">
-        <v>6.45575429957188</v>
+        <v>6.4591118695481002</v>
       </c>
       <c r="H96" s="60">
-        <v>12.3078802127432</v>
+        <v>12.3147424561439</v>
       </c>
       <c r="I96" s="57">
         <v>71126</v>
@@ -9257,10 +9257,10 @@
         <v>191.636453629203</v>
       </c>
       <c r="M96" s="59">
-        <v>2.4117236084704499</v>
+        <v>2.4102458839512702</v>
       </c>
       <c r="N96" s="60">
-        <v>5.2331812943828497</v>
+        <v>5.2296965665651101</v>
       </c>
       <c r="O96" s="60">
         <v>44.645192033118398</v>
@@ -9320,10 +9320,10 @@
         <v>89.044812680322806</v>
       </c>
       <c r="G97" s="64">
-        <v>2.8215506307062701</v>
+        <v>2.8202623504983202</v>
       </c>
       <c r="H97" s="65">
-        <v>6.2809089154568198</v>
+        <v>6.2790155604968403</v>
       </c>
       <c r="I97" s="62">
         <v>638947</v>
@@ -9338,10 +9338,10 @@
         <v>214.96430925799999</v>
       </c>
       <c r="M97" s="64">
-        <v>6.6828058757053599</v>
+        <v>6.6833234532570902</v>
       </c>
       <c r="N97" s="65">
-        <v>14.8873931106402</v>
+        <v>14.8940572560606</v>
       </c>
       <c r="O97" s="65">
         <v>6.9755589924956496</v>
@@ -9401,10 +9401,10 @@
         <v>327.14643311560701</v>
       </c>
       <c r="G98" s="59">
-        <v>5.4867720862872202</v>
+        <v>5.4867710516505603</v>
       </c>
       <c r="H98" s="60">
-        <v>13.753872070856</v>
+        <v>13.753868004150201</v>
       </c>
       <c r="I98" s="57">
         <v>388171</v>
@@ -9419,10 +9419,10 @@
         <v>257.87567787979299</v>
       </c>
       <c r="M98" s="59">
-        <v>4.3955380490666203</v>
+        <v>4.3955359532330798</v>
       </c>
       <c r="N98" s="60">
-        <v>9.3556160118247096</v>
+        <v>9.3556110302765898</v>
       </c>
       <c r="O98" s="60">
         <v>38.152937467574901</v>
@@ -9845,11 +9845,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{12071A8E-CE64-4B03-8875-EB9332B12579}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{56220447-7274-42C8-A9A2-2071509C2173}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{A6608AEF-FDA5-4981-8E4B-F7006637AE03}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{5079C9DD-95EC-435C-B766-E62B90FD0DF2}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{38D734BB-5FE7-48F6-B568-FAAF50AB66D1}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CE9FBC4E-D3E1-41E2-A14F-7D7A70F17E19}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{01C1776E-60CD-455A-8AB8-F73B4B159E65}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{DA41ECDA-6781-4EBB-A76D-CE7A1B807126}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{1C9205A4-2252-474A-8344-C96EF54EDEC6}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{2CB49CE9-E26C-4C92-A874-E1C5E3B4C035}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab30.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB4FAA4D-1722-4535-A807-519775CF39E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3598C3DF-FE40-4FE3-A39D-06641B5DAF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{A782951B-88B5-4FAA-99C2-E7A5FA0D7408}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E715AD87-A89C-494D-B2C2-43E4D61DDFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab30'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -308,7 +308,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -386,7 +386,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -440,7 +440,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103EF36D-C0AC-47CB-B4C9-9BFAAF4CC87F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0402A8AF-CB4B-44AA-9D4C-26FBFE6EED9E}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4149,82 +4149,82 @@
       <c r="A34" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="34">
         <v>1390</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="35">
         <v>133.04406936439199</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="36">
         <v>3.47</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="34">
         <v>7678</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="35">
         <v>734.90098171208797</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="36">
         <v>19.18</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="37">
         <v>4.8814730486215803</v>
       </c>
-      <c r="P34" s="20">
+      <c r="P34" s="36">
         <v>107.105261596226</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="37">
         <v>2.2014486297705198</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="36">
         <v>36.467475127937703</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="37">
         <v>1.0528667359771999</v>
       </c>
-      <c r="T34" s="20">
+      <c r="T34" s="36">
         <v>574.00380142320796</v>
       </c>
-      <c r="U34" s="20">
+      <c r="U34" s="36">
         <v>435.88682869456198</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V34" s="37">
         <v>387.64638915524301</v>
       </c>
-      <c r="W34" s="20">
+      <c r="W34" s="36">
         <v>13.878697883335899</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34" s="37">
         <v>3.8286063126443799</v>
       </c>
-      <c r="Y34" s="20">
+      <c r="Y34" s="36">
         <v>50.059027537825202</v>
       </c>
-      <c r="Z34" s="20">
+      <c r="Z34" s="36">
         <v>19.9087528257507</v>
       </c>
-      <c r="AA34" s="21">
+      <c r="AA34" s="37">
         <v>8.2315035721854102</v>
       </c>
     </row>
@@ -6058,82 +6058,82 @@
       <c r="A57" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="34">
+      <c r="C57" s="23">
         <v>68533</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="24">
         <v>337.09535547301101</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="25">
         <v>8.02</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="24">
         <v>207.57</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="25">
         <v>4.1113200000000001</v>
       </c>
-      <c r="H57" s="37">
+      <c r="H57" s="26">
         <v>8.02</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57" s="23">
         <v>128259</v>
       </c>
-      <c r="J57" s="35">
+      <c r="J57" s="24">
         <v>630.87145167456504</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="25">
         <v>15.01</v>
       </c>
-      <c r="L57" s="35">
+      <c r="L57" s="24">
         <v>388.46</v>
       </c>
-      <c r="M57" s="36">
+      <c r="M57" s="25">
         <v>7.6942789999999999</v>
       </c>
-      <c r="N57" s="37">
+      <c r="N57" s="26">
         <v>15.01</v>
       </c>
-      <c r="O57" s="37">
+      <c r="O57" s="26">
         <v>8.1060678187081106</v>
       </c>
-      <c r="P57" s="36">
+      <c r="P57" s="25">
         <v>95.669307690456804</v>
       </c>
-      <c r="Q57" s="37">
+      <c r="Q57" s="26">
         <v>13.580614834619601</v>
       </c>
-      <c r="R57" s="36">
+      <c r="R57" s="25">
         <v>26.915293145613301</v>
       </c>
-      <c r="S57" s="37">
+      <c r="S57" s="26">
         <v>1.38216326277729</v>
       </c>
-      <c r="T57" s="36">
+      <c r="T57" s="25">
         <v>773.67695348315306</v>
       </c>
-      <c r="U57" s="36">
+      <c r="U57" s="25">
         <v>507.814652713133</v>
       </c>
-      <c r="V57" s="37">
+      <c r="V57" s="26">
         <v>474.76078393781899</v>
       </c>
-      <c r="W57" s="36">
+      <c r="W57" s="25">
         <v>12.321419833655201</v>
       </c>
-      <c r="X57" s="37">
+      <c r="X57" s="26">
         <v>1.94781726711675</v>
       </c>
-      <c r="Y57" s="36">
+      <c r="Y57" s="25">
         <v>48.779050095951703</v>
       </c>
-      <c r="Z57" s="36">
+      <c r="Z57" s="25">
         <v>18.6124761080045</v>
       </c>
-      <c r="AA57" s="37">
+      <c r="AA57" s="26">
         <v>15.134933663935</v>
       </c>
     </row>
@@ -7040,79 +7040,79 @@
         <v>149</v>
       </c>
       <c r="C69" s="52">
-        <v>20447</v>
+        <v>31507</v>
       </c>
       <c r="D69" s="53">
-        <v>108.224901433537</v>
+        <v>112.99411484173601</v>
       </c>
       <c r="E69" s="54">
-        <v>3.22437829626588</v>
+        <v>3.4841386722793799</v>
       </c>
       <c r="F69" s="53">
-        <v>34.893218731310398</v>
+        <v>27.204208151041801</v>
       </c>
       <c r="G69" s="54">
-        <v>1.29717775044828</v>
+        <v>1.29465671088663</v>
       </c>
       <c r="H69" s="55">
-        <v>3.2269218576216101</v>
+        <v>3.35304303383738</v>
       </c>
       <c r="I69" s="52">
-        <v>109425</v>
+        <v>167463</v>
       </c>
       <c r="J69" s="53">
-        <v>579.18080106444995</v>
+        <v>600.57553730096697</v>
       </c>
       <c r="K69" s="54">
-        <v>17.098411890371999</v>
+        <v>18.404784404829599</v>
       </c>
       <c r="L69" s="53">
-        <v>176.15395701646099</v>
+        <v>138.13505228194799</v>
       </c>
       <c r="M69" s="54">
-        <v>6.4354124340619601</v>
+        <v>6.4805510300861897</v>
       </c>
       <c r="N69" s="55">
-        <v>15.9160719983542</v>
+        <v>16.7380457527902</v>
       </c>
       <c r="O69" s="55">
-        <v>5.0759368354654599</v>
+        <v>7.2300166794978598</v>
       </c>
       <c r="P69" s="54">
-        <v>14.783202900370201</v>
+        <v>14.603486070890501</v>
       </c>
       <c r="Q69" s="55">
-        <v>34.981091288416302</v>
+        <v>31.154342705752899</v>
       </c>
       <c r="R69" s="54">
-        <v>33.705490894936403</v>
+        <v>37.279773503660799</v>
       </c>
       <c r="S69" s="55">
-        <v>1.2014991258088199</v>
+        <v>1.3914913053795499</v>
       </c>
       <c r="T69" s="54">
-        <v>290.87923329493202</v>
+        <v>301.64160361899098</v>
       </c>
       <c r="U69" s="54">
-        <v>214.77723139678599</v>
+        <v>219.60817032195001</v>
       </c>
       <c r="V69" s="55">
-        <v>220.49361490283599</v>
+        <v>226.63018056920001</v>
       </c>
       <c r="W69" s="54">
-        <v>17.958971514842901</v>
+        <v>19.5884678092348</v>
       </c>
       <c r="X69" s="55">
-        <v>5.2770688477153902</v>
+        <v>5.5516199503287096</v>
       </c>
       <c r="Y69" s="54">
-        <v>43.0210788307229</v>
+        <v>36.985695444276502</v>
       </c>
       <c r="Z69" s="54">
-        <v>21.177083710841799</v>
+        <v>17.375709728257501</v>
       </c>
       <c r="AA69" s="55">
-        <v>8.6010399975300995</v>
+        <v>8.5999900780931799</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.35">
@@ -7688,79 +7688,79 @@
         <v>156</v>
       </c>
       <c r="C77" s="52">
-        <v>106866</v>
+        <v>94482</v>
       </c>
       <c r="D77" s="53">
-        <v>249.66919695827701</v>
+        <v>236.762165300737</v>
       </c>
       <c r="E77" s="54">
-        <v>7.5335654479895302</v>
+        <v>7.2927921170051899</v>
       </c>
       <c r="F77" s="53">
-        <v>381.49775458428599</v>
+        <v>384.47709782547503</v>
       </c>
       <c r="G77" s="54">
-        <v>2.7252611013311201</v>
+        <v>2.6385420178142902</v>
       </c>
       <c r="H77" s="55">
-        <v>7.3223615507939099</v>
+        <v>7.1986284199257904</v>
       </c>
       <c r="I77" s="52">
-        <v>24135</v>
+        <v>24047</v>
       </c>
       <c r="J77" s="53">
-        <v>56.386185209402498</v>
+        <v>60.259306418014297</v>
       </c>
       <c r="K77" s="54">
-        <v>1.7459198659908199</v>
+        <v>1.8668657399398301</v>
       </c>
       <c r="L77" s="53">
-        <v>83.965943213259195</v>
+        <v>89.886909178688001</v>
       </c>
       <c r="M77" s="54">
-        <v>0.58643690197107001</v>
+        <v>0.60571749259299001</v>
       </c>
       <c r="N77" s="55">
-        <v>1.6304713355768901</v>
+        <v>1.6848546504870101</v>
       </c>
       <c r="O77" s="55">
-        <v>12.0341926668172</v>
+        <v>12.4768614236825</v>
       </c>
       <c r="P77" s="54">
-        <v>25.084668348595599</v>
+        <v>22.2022478838777</v>
       </c>
       <c r="Q77" s="55">
-        <v>111.108937070179</v>
+        <v>116.361329626169</v>
       </c>
       <c r="R77" s="54">
-        <v>61.9605559535349</v>
+        <v>58.194447246872699</v>
       </c>
       <c r="S77" s="55">
-        <v>7.0018395306641503</v>
+        <v>6.8285694676711897</v>
       </c>
       <c r="T77" s="54">
-        <v>18.0594659900013</v>
+        <v>17.433525793243501</v>
       </c>
       <c r="U77" s="54">
-        <v>9.1138391755491703</v>
+        <v>9.0437824619542404</v>
       </c>
       <c r="V77" s="55">
-        <v>25.848632821911298</v>
+        <v>26.605109004867899</v>
       </c>
       <c r="W77" s="54">
-        <v>34.740525132124098</v>
+        <v>35.333148438225201</v>
       </c>
       <c r="X77" s="55">
-        <v>30.8482779989621</v>
+        <v>31.629432594842498</v>
       </c>
       <c r="Y77" s="54">
-        <v>117.24868825022099</v>
+        <v>116.356317832065</v>
       </c>
       <c r="Z77" s="54">
-        <v>151.437850643193</v>
+        <v>154.65143658617501</v>
       </c>
       <c r="AA77" s="55">
-        <v>27.640561724153301</v>
+        <v>27.484678870244998</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.35">
@@ -7931,79 +7931,79 @@
         <v>158</v>
       </c>
       <c r="C80" s="62">
-        <v>106442</v>
+        <v>39299</v>
       </c>
       <c r="D80" s="63">
-        <v>337.49665557530301</v>
+        <v>320.729609383916</v>
       </c>
       <c r="E80" s="64">
-        <v>8.8965973782310392</v>
+        <v>9.8883618830075495</v>
       </c>
       <c r="F80" s="63">
-        <v>266.63264616240502</v>
+        <v>373.76550576920999</v>
       </c>
       <c r="G80" s="64">
-        <v>4.2776910123578098</v>
+        <v>4.4524452303257398</v>
       </c>
       <c r="H80" s="65">
-        <v>10.506479961256</v>
+        <v>13.118250214764499</v>
       </c>
       <c r="I80" s="62">
-        <v>159223</v>
+        <v>38642</v>
       </c>
       <c r="J80" s="63">
-        <v>504.84987120372102</v>
+        <v>315.36765734021901</v>
       </c>
       <c r="K80" s="64">
-        <v>11.8753956081026</v>
+        <v>7.2972264019286799</v>
       </c>
       <c r="L80" s="63">
-        <v>285.629016110625</v>
+        <v>99.105416576030194</v>
       </c>
       <c r="M80" s="64">
-        <v>4.5424646131336104</v>
+        <v>1.23183465091191</v>
       </c>
       <c r="N80" s="65">
-        <v>9.0976797064157697</v>
+        <v>2.88744575616977</v>
       </c>
       <c r="O80" s="65">
-        <v>8.5799397792860894</v>
+        <v>9.0508444694969992</v>
       </c>
       <c r="P80" s="64">
-        <v>84.118921782875105</v>
+        <v>66.914223449419197</v>
       </c>
       <c r="Q80" s="65">
-        <v>37.2970552933268</v>
+        <v>73.6554295195766</v>
       </c>
       <c r="R80" s="64">
-        <v>39.205822383914501</v>
+        <v>59.365052002814402</v>
       </c>
       <c r="S80" s="65">
-        <v>1.7660851652115099</v>
+        <v>2.3422834650546802</v>
       </c>
       <c r="T80" s="64">
-        <v>628.97680486207003</v>
+        <v>384.19977840039701</v>
       </c>
       <c r="U80" s="64">
-        <v>420.15070959098301</v>
+        <v>276.03851442001502</v>
       </c>
       <c r="V80" s="65">
-        <v>381.10976409861399</v>
+        <v>226.279273003854</v>
       </c>
       <c r="W80" s="64">
-        <v>12.1216222380675</v>
+        <v>11.9399327852787</v>
       </c>
       <c r="X80" s="65">
-        <v>3.2531478985763198</v>
+        <v>5.4680485072704998</v>
       </c>
       <c r="Y80" s="64">
-        <v>71.0175503238913</v>
+        <v>106.12910863962</v>
       </c>
       <c r="Z80" s="64">
-        <v>27.9561452453679</v>
+        <v>42.773197353141299</v>
       </c>
       <c r="AA80" s="65">
-        <v>14.1477055784089</v>
+        <v>12.005222916708799</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.35">
@@ -8093,79 +8093,79 @@
         <v>160</v>
       </c>
       <c r="C82" s="52">
-        <v>276978</v>
+        <v>344121</v>
       </c>
       <c r="D82" s="53">
-        <v>274.094497924199</v>
+        <v>285.96277026178802</v>
       </c>
       <c r="E82" s="54">
-        <v>7.3390520255281402</v>
+        <v>7.48768570892861</v>
       </c>
       <c r="F82" s="53">
-        <v>261.268907798052</v>
+        <v>251.72723928924199</v>
       </c>
       <c r="G82" s="54">
-        <v>5.5140858198604299</v>
+        <v>5.2471486786844599</v>
       </c>
       <c r="H82" s="55">
-        <v>12.127807806646199</v>
+        <v>11.3461189054185</v>
       </c>
       <c r="I82" s="52">
-        <v>537711</v>
+        <v>658292</v>
       </c>
       <c r="J82" s="53">
-        <v>532.11311574680599</v>
+        <v>547.03724550717004</v>
       </c>
       <c r="K82" s="54">
-        <v>14.34298336746</v>
+        <v>14.413677712217201</v>
       </c>
       <c r="L82" s="53">
-        <v>141.938762565106</v>
+        <v>185.74270615426499</v>
       </c>
       <c r="M82" s="54">
-        <v>3.15011076846478</v>
+        <v>4.0148361984509204</v>
       </c>
       <c r="N82" s="55">
-        <v>7.3872034443110399</v>
+        <v>8.8377716657010392</v>
       </c>
       <c r="O82" s="55">
-        <v>8.5025522827254001</v>
+        <v>8.4670062745294796</v>
       </c>
       <c r="P82" s="54">
-        <v>40.516759556753499</v>
+        <v>49.256387272201401</v>
       </c>
       <c r="Q82" s="55">
-        <v>68.1856796946727</v>
+        <v>59.533300276137602</v>
       </c>
       <c r="R82" s="54">
-        <v>70.292515566404902</v>
+        <v>63.257819082933302</v>
       </c>
       <c r="S82" s="55">
-        <v>2.0712106526704201</v>
+        <v>1.9636407720790201</v>
       </c>
       <c r="T82" s="54">
-        <v>315.102093832469</v>
+        <v>390.328241360466</v>
       </c>
       <c r="U82" s="54">
-        <v>230.973139018268</v>
+        <v>275.96507151913801</v>
       </c>
       <c r="V82" s="55">
-        <v>220.511199687149</v>
+        <v>262.01433039274599</v>
       </c>
       <c r="W82" s="54">
-        <v>18.324227260152</v>
+        <v>17.348678966861499</v>
       </c>
       <c r="X82" s="55">
-        <v>7.3457222526385797</v>
+        <v>6.4643087456634403</v>
       </c>
       <c r="Y82" s="54">
-        <v>76.357709111659105</v>
+        <v>71.926757099999904</v>
       </c>
       <c r="Z82" s="54">
-        <v>38.529664004645397</v>
+        <v>35.3264210164415</v>
       </c>
       <c r="AA82" s="55">
-        <v>13.9710234086961</v>
+        <v>14.217490465298299</v>
       </c>
     </row>
     <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8255,79 +8255,79 @@
         <v>162</v>
       </c>
       <c r="C84" s="62">
-        <v>73209</v>
+        <v>76158</v>
       </c>
       <c r="D84" s="63">
-        <v>133.968787514198</v>
+        <v>134.83024685497699</v>
       </c>
       <c r="E84" s="64">
-        <v>3.8884902650006499</v>
+        <v>3.8914680673942699</v>
       </c>
       <c r="F84" s="63">
-        <v>19.194354123591399</v>
+        <v>21.129184584756501</v>
       </c>
       <c r="G84" s="64">
-        <v>1.16981847410522</v>
+        <v>1.23236261361852</v>
       </c>
       <c r="H84" s="65">
-        <v>3.1920298551358202</v>
+        <v>3.2464627458376398</v>
       </c>
       <c r="I84" s="62">
-        <v>407558</v>
+        <v>416380</v>
       </c>
       <c r="J84" s="63">
-        <v>745.81063942563503</v>
+        <v>737.15982806107297</v>
       </c>
       <c r="K84" s="64">
-        <v>19.8565405306922</v>
+        <v>19.597953535402201</v>
       </c>
       <c r="L84" s="63">
-        <v>125.655010559193</v>
+        <v>128.91160963294999</v>
       </c>
       <c r="M84" s="64">
-        <v>7.6258954187636903</v>
+        <v>7.5279995149322296</v>
       </c>
       <c r="N84" s="65">
-        <v>20.592975240407402</v>
+        <v>19.9931562684474</v>
       </c>
       <c r="O84" s="65">
-        <v>7.2905196008218001</v>
+        <v>7.2285498294187098</v>
       </c>
       <c r="P84" s="64">
-        <v>50.7097361090294</v>
+        <v>49.344634054753399</v>
       </c>
       <c r="Q84" s="65">
-        <v>34.015105005039104</v>
+        <v>33.897879888288003</v>
       </c>
       <c r="R84" s="64">
-        <v>60.060779070926799</v>
+        <v>59.209311901807297</v>
       </c>
       <c r="S84" s="65">
-        <v>1.260835342612</v>
+        <v>1.26760756254318</v>
       </c>
       <c r="T84" s="64">
-        <v>462.616773756665</v>
+        <v>458.034767271014</v>
       </c>
       <c r="U84" s="64">
-        <v>347.42144020452298</v>
+        <v>343.433129368018</v>
       </c>
       <c r="V84" s="65">
-        <v>303.678322599593</v>
+        <v>300.833725499423</v>
       </c>
       <c r="W84" s="64">
-        <v>18.248258398442498</v>
+        <v>18.1182902165739</v>
       </c>
       <c r="X84" s="65">
-        <v>4.4138386739915099</v>
+        <v>4.4844273127400403</v>
       </c>
       <c r="Y84" s="64">
-        <v>46.6948264694201</v>
+        <v>46.802337323172402</v>
       </c>
       <c r="Z84" s="64">
-        <v>23.3904170526366</v>
+        <v>23.519785570371699</v>
       </c>
       <c r="AA84" s="65">
-        <v>9.79572073875479</v>
+        <v>9.7602241512577308</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.35">
@@ -8417,79 +8417,79 @@
         <v>164</v>
       </c>
       <c r="C86" s="52">
-        <v>278473</v>
+        <v>275524</v>
       </c>
       <c r="D86" s="53">
-        <v>395.196237759859</v>
+        <v>401.483749435817</v>
       </c>
       <c r="E86" s="54">
-        <v>10.6353346389243</v>
+        <v>10.813586967354601</v>
       </c>
       <c r="F86" s="53">
-        <v>390.53733981303202</v>
+        <v>399.08705777375002</v>
       </c>
       <c r="G86" s="54">
-        <v>5.9686185909816301</v>
+        <v>6.0234276940211</v>
       </c>
       <c r="H86" s="55">
-        <v>13.946863752426299</v>
+        <v>14.087171256429301</v>
       </c>
       <c r="I86" s="52">
-        <v>283200</v>
+        <v>274378</v>
       </c>
       <c r="J86" s="53">
-        <v>401.904581534268</v>
+        <v>399.81383909459998</v>
       </c>
       <c r="K86" s="54">
-        <v>10.3336328837312</v>
+        <v>10.291412450923501</v>
       </c>
       <c r="L86" s="53">
-        <v>220.15912066125799</v>
+        <v>220.34042056348099</v>
       </c>
       <c r="M86" s="54">
-        <v>3.5114542190289901</v>
+        <v>3.4734832434519101</v>
       </c>
       <c r="N86" s="55">
-        <v>7.1934129627193899</v>
+        <v>7.12701569161666</v>
       </c>
       <c r="O86" s="55">
-        <v>9.2897859841925001</v>
+        <v>9.3943385426050394</v>
       </c>
       <c r="P86" s="54">
-        <v>55.371154864839397</v>
+        <v>56.619577851940697</v>
       </c>
       <c r="Q86" s="55">
-        <v>70.744856601282606</v>
+        <v>71.825087808832805</v>
       </c>
       <c r="R86" s="54">
-        <v>67.219676585282897</v>
+        <v>68.1122330536665</v>
       </c>
       <c r="S86" s="55">
-        <v>2.1202169661447599</v>
+        <v>2.1376600964792298</v>
       </c>
       <c r="T86" s="54">
-        <v>359.32142873229998</v>
+        <v>360.32614246577202</v>
       </c>
       <c r="U86" s="54">
-        <v>241.08314442753601</v>
+        <v>241.51770462914101</v>
       </c>
       <c r="V86" s="55">
-        <v>239.208441206467</v>
+        <v>239.82302249403199</v>
       </c>
       <c r="W86" s="54">
-        <v>15.176439247625201</v>
+        <v>15.201138463852301</v>
       </c>
       <c r="X86" s="55">
-        <v>5.1557886465889604</v>
+        <v>5.1175611852999703</v>
       </c>
       <c r="Y86" s="54">
-        <v>91.3268557043599</v>
+        <v>92.433763162960801</v>
       </c>
       <c r="Z86" s="54">
-        <v>40.076925785761702</v>
+        <v>40.417367481966203</v>
       </c>
       <c r="AA86" s="55">
-        <v>16.328792779425399</v>
+        <v>16.532986676655302</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.35">
@@ -8498,79 +8498,79 @@
         <v>165</v>
       </c>
       <c r="C87" s="52">
-        <v>1531502</v>
+        <v>1534712</v>
       </c>
       <c r="D87" s="53">
-        <v>585.32543946067699</v>
+        <v>585.34582572565296</v>
       </c>
       <c r="E87" s="54">
-        <v>14.0539120851671</v>
+        <v>14.054645606910601</v>
       </c>
       <c r="F87" s="53">
-        <v>488.52676606593201</v>
+        <v>489.13101406382299</v>
       </c>
       <c r="G87" s="54">
-        <v>6.7069917560805097</v>
+        <v>6.7010541903778602</v>
       </c>
       <c r="H87" s="55">
-        <v>13.6762043480241</v>
+        <v>13.678789002450699</v>
       </c>
       <c r="I87" s="52">
-        <v>1114555</v>
+        <v>1114535</v>
       </c>
       <c r="J87" s="53">
-        <v>425.97227765820401</v>
+        <v>425.08849209176799</v>
       </c>
       <c r="K87" s="54">
-        <v>10.338906999878599</v>
+        <v>10.3173379334873</v>
       </c>
       <c r="L87" s="53">
-        <v>329.729276079366</v>
+        <v>329.04667467566702</v>
       </c>
       <c r="M87" s="54">
-        <v>4.55701134056046</v>
+        <v>4.5348090603425</v>
       </c>
       <c r="N87" s="55">
-        <v>9.3294750770453501</v>
+        <v>9.2839129828572204</v>
       </c>
       <c r="O87" s="55">
-        <v>78.598230544894605</v>
+        <v>78.468604403623004</v>
       </c>
       <c r="P87" s="54">
-        <v>70.577963939247098</v>
+        <v>70.428982207099395</v>
       </c>
       <c r="Q87" s="55">
-        <v>97.947768677404497</v>
+        <v>98.404990941622103</v>
       </c>
       <c r="R87" s="54">
-        <v>139.968844338959</v>
+        <v>139.920472533225</v>
       </c>
       <c r="S87" s="55">
-        <v>3.6021449968180801</v>
+        <v>3.6183830247364202</v>
       </c>
       <c r="T87" s="54">
-        <v>259.26233187230901</v>
+        <v>258.74089387065902</v>
       </c>
       <c r="U87" s="54">
-        <v>142.97056813789899</v>
+        <v>142.67573752433799</v>
       </c>
       <c r="V87" s="55">
-        <v>93.145163475280796</v>
+        <v>92.968071998055294</v>
       </c>
       <c r="W87" s="54">
-        <v>79.233048883325907</v>
+        <v>79.104405447391898</v>
       </c>
       <c r="X87" s="55">
-        <v>13.912878972856101</v>
+        <v>13.9136305199098</v>
       </c>
       <c r="Y87" s="54">
-        <v>173.684539318726</v>
+        <v>173.83227709508699</v>
       </c>
       <c r="Z87" s="54">
-        <v>46.449898603000797</v>
+        <v>46.579005681030303</v>
       </c>
       <c r="AA87" s="55">
-        <v>22.519425729709798</v>
+        <v>22.514679912850799</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.35">
@@ -8660,79 +8660,79 @@
         <v>167</v>
       </c>
       <c r="C89" s="52">
-        <v>1831718</v>
+        <v>1813286</v>
       </c>
       <c r="D89" s="53">
-        <v>746.38577334646902</v>
+        <v>747.75132393357001</v>
       </c>
       <c r="E89" s="54">
-        <v>15.2096926182305</v>
+        <v>15.2868445491288</v>
       </c>
       <c r="F89" s="53">
-        <v>1344.2695061919701</v>
+        <v>1339.4422329291799</v>
       </c>
       <c r="G89" s="54">
-        <v>7.7603079984928502</v>
+        <v>7.7752774382502601</v>
       </c>
       <c r="H89" s="55">
-        <v>14.593895113401601</v>
+        <v>14.7172367274402</v>
       </c>
       <c r="I89" s="52">
-        <v>424815</v>
+        <v>422247</v>
       </c>
       <c r="J89" s="53">
-        <v>173.10299527775601</v>
+        <v>174.123526722744</v>
       </c>
       <c r="K89" s="54">
-        <v>3.5320718896293202</v>
+        <v>3.5618232310577</v>
       </c>
       <c r="L89" s="53">
-        <v>298.96534520655899</v>
+        <v>299.29789458118103</v>
       </c>
       <c r="M89" s="54">
-        <v>1.7143155773396299</v>
+        <v>1.7267704572973299</v>
       </c>
       <c r="N89" s="55">
-        <v>3.23709719108105</v>
+        <v>3.27758794660466</v>
       </c>
       <c r="O89" s="55">
-        <v>44.312068612148998</v>
+        <v>44.740476620992297</v>
       </c>
       <c r="P89" s="54">
-        <v>15.0995247178478</v>
+        <v>15.2598860533649</v>
       </c>
       <c r="Q89" s="55">
-        <v>336.643284217038</v>
+        <v>333.75212046951799</v>
       </c>
       <c r="R89" s="54">
-        <v>145.21597906877301</v>
+        <v>145.02067039710801</v>
       </c>
       <c r="S89" s="55">
-        <v>16.2225355695962</v>
+        <v>16.181128735251502</v>
       </c>
       <c r="T89" s="54">
-        <v>8.9734923719895399</v>
+        <v>9.0074771264328692</v>
       </c>
       <c r="U89" s="54">
-        <v>3.4831265459888598</v>
+        <v>3.4932169911648101</v>
       </c>
       <c r="V89" s="55">
-        <v>11.036963690296499</v>
+        <v>11.0936753035433</v>
       </c>
       <c r="W89" s="54">
-        <v>97.319729233119105</v>
+        <v>98.005128478009595</v>
       </c>
       <c r="X89" s="55">
-        <v>45.4106307515952</v>
+        <v>45.453470621431897</v>
       </c>
       <c r="Y89" s="54">
-        <v>236.08817538925999</v>
+        <v>235.726785683804</v>
       </c>
       <c r="Z89" s="54">
-        <v>203.16064966063701</v>
+        <v>201.56410495944399</v>
       </c>
       <c r="AA89" s="55">
-        <v>36.487665718363601</v>
+        <v>35.5795965054538</v>
       </c>
     </row>
     <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8741,79 +8741,79 @@
         <v>168</v>
       </c>
       <c r="C90" s="57">
-        <v>314607</v>
+        <v>329829</v>
       </c>
       <c r="D90" s="58">
-        <v>267.15458957937898</v>
+        <v>274.54626291693</v>
       </c>
       <c r="E90" s="59">
-        <v>5.7903807422619504</v>
+        <v>5.8243595613362897</v>
       </c>
       <c r="F90" s="58">
-        <v>1145.0980456013499</v>
+        <v>1161.25585839826</v>
       </c>
       <c r="G90" s="59">
-        <v>2.37053073981303</v>
+        <v>2.4282613496296301</v>
       </c>
       <c r="H90" s="60">
-        <v>5.4716463921109</v>
+        <v>5.4958374728989998</v>
       </c>
       <c r="I90" s="57">
-        <v>5915</v>
+        <v>8503</v>
       </c>
       <c r="J90" s="58">
-        <v>5.0228361014282203</v>
+        <v>7.0778096334241498</v>
       </c>
       <c r="K90" s="59">
-        <v>7.623428614536E-2</v>
+        <v>0.10098513991268</v>
       </c>
       <c r="L90" s="58">
-        <v>17.474969937162498</v>
+        <v>23.7211102793345</v>
       </c>
       <c r="M90" s="59">
-        <v>3.5896824012700002E-2</v>
+        <v>5.0101234396989998E-2</v>
       </c>
       <c r="N90" s="60">
-        <v>5.2322906425920003E-2</v>
+        <v>6.7596769365120005E-2</v>
       </c>
       <c r="O90" s="60">
-        <v>28.7418315342419</v>
+        <v>28.313735702801701</v>
       </c>
       <c r="P90" s="59">
-        <v>10.1569133743335</v>
+        <v>10.0069889936523</v>
       </c>
       <c r="Q90" s="60">
-        <v>386.26925832317301</v>
+        <v>391.19818810071098</v>
       </c>
       <c r="R90" s="59">
-        <v>58.173188497792303</v>
+        <v>60.416509327671598</v>
       </c>
       <c r="S90" s="60">
-        <v>26.086479296005901</v>
+        <v>25.996362773311699</v>
       </c>
       <c r="T90" s="59">
-        <v>1.91572582330043</v>
+        <v>2.0010648428497801</v>
       </c>
       <c r="U90" s="59">
-        <v>1.07929411410233</v>
+        <v>1.12372609727421</v>
       </c>
       <c r="V90" s="60">
-        <v>5.5238459576991596</v>
+        <v>5.5362239059042704</v>
       </c>
       <c r="W90" s="59">
-        <v>40.392433615661197</v>
+        <v>40.495758986955799</v>
       </c>
       <c r="X90" s="60">
-        <v>161.50604676905101</v>
+        <v>159.26528357182301</v>
       </c>
       <c r="Y90" s="59">
-        <v>116.273348440264</v>
+        <v>119.328058074697</v>
       </c>
       <c r="Z90" s="59">
-        <v>179.93301944884701</v>
+        <v>184.03636870425501</v>
       </c>
       <c r="AA90" s="60">
-        <v>113.62988457149901</v>
+        <v>114.01158505003799</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.35">
@@ -9065,79 +9065,79 @@
         <v>172</v>
       </c>
       <c r="C94" s="52">
-        <v>18618</v>
+        <v>17994</v>
       </c>
       <c r="D94" s="53">
-        <v>300.25540578264997</v>
+        <v>297.35748447664702</v>
       </c>
       <c r="E94" s="54">
-        <v>7.1997837567599001</v>
+        <v>6.8190276598646902</v>
       </c>
       <c r="F94" s="53">
-        <v>537.98044744880701</v>
+        <v>508.23843231728301</v>
       </c>
       <c r="G94" s="54">
-        <v>2.7264492781540799</v>
+        <v>2.6639432279954001</v>
       </c>
       <c r="H94" s="55">
-        <v>10.8970337655085</v>
+        <v>10.0081339501253</v>
       </c>
       <c r="I94" s="52">
-        <v>28114</v>
+        <v>28112</v>
       </c>
       <c r="J94" s="53">
-        <v>453.39888700039899</v>
+        <v>464.56116503320601</v>
       </c>
       <c r="K94" s="54">
-        <v>9.4732226245947899</v>
+        <v>9.7056539893182006</v>
       </c>
       <c r="L94" s="53">
-        <v>248.90341781324199</v>
+        <v>256.33948437836602</v>
       </c>
       <c r="M94" s="54">
-        <v>1.25568164866865</v>
+        <v>1.35017174840191</v>
       </c>
       <c r="N94" s="55">
-        <v>2.2815276944946801</v>
+        <v>2.4499761501163402</v>
       </c>
       <c r="O94" s="55">
-        <v>5.85415792776356</v>
+        <v>5.6847268344985302</v>
       </c>
       <c r="P94" s="54">
-        <v>21.626517303391001</v>
+        <v>20.309678138368302</v>
       </c>
       <c r="Q94" s="55">
-        <v>29.657841402636901</v>
+        <v>29.084648920690199</v>
       </c>
       <c r="R94" s="54">
-        <v>120.260208449953</v>
+        <v>122.70086263416199</v>
       </c>
       <c r="S94" s="55">
-        <v>3.87051763819079</v>
+        <v>3.8999870143652702</v>
       </c>
       <c r="T94" s="54">
-        <v>120.80853178203</v>
+        <v>123.692384756458</v>
       </c>
       <c r="U94" s="54">
-        <v>82.796823143631201</v>
+        <v>84.824717562444704</v>
       </c>
       <c r="V94" s="55">
-        <v>82.119482556947801</v>
+        <v>84.064550602017604</v>
       </c>
       <c r="W94" s="54">
-        <v>29.964257382326998</v>
+        <v>30.4893052606099</v>
       </c>
       <c r="X94" s="55">
-        <v>24.819694354898399</v>
+        <v>24.936781375750801</v>
       </c>
       <c r="Y94" s="54">
-        <v>148.063426817623</v>
+        <v>149.27365551170101</v>
       </c>
       <c r="Z94" s="54">
-        <v>90.828147242877094</v>
+        <v>91.682745574993803</v>
       </c>
       <c r="AA94" s="55">
-        <v>22.465129458332399</v>
+        <v>22.557128282239798</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.35">
@@ -9185,7 +9185,7 @@
         <v>6.56927891669066</v>
       </c>
       <c r="P95" s="54">
-        <v>53.8034031600505</v>
+        <v>53.803403160050401</v>
       </c>
       <c r="Q95" s="55">
         <v>41.228604583295699</v>
@@ -9308,79 +9308,79 @@
         <v>175</v>
       </c>
       <c r="C97" s="62">
-        <v>187217</v>
+        <v>189521</v>
       </c>
       <c r="D97" s="63">
-        <v>192.95851476035099</v>
+        <v>192.88976830182301</v>
       </c>
       <c r="E97" s="64">
-        <v>5.1212568629392203</v>
+        <v>5.11886444829263</v>
       </c>
       <c r="F97" s="63">
-        <v>89.044812680322806</v>
+        <v>88.930981660816101</v>
       </c>
       <c r="G97" s="64">
-        <v>2.8202623504983202</v>
+        <v>2.8162027335573998</v>
       </c>
       <c r="H97" s="65">
-        <v>6.2790155604968403</v>
+        <v>6.2616806476161297</v>
       </c>
       <c r="I97" s="62">
-        <v>638947</v>
+        <v>648838</v>
       </c>
       <c r="J97" s="63">
-        <v>658.54203480764204</v>
+        <v>660.37120680778605</v>
       </c>
       <c r="K97" s="64">
-        <v>17.1362030717066</v>
+        <v>17.186536380317001</v>
       </c>
       <c r="L97" s="63">
-        <v>214.96430925799999</v>
+        <v>216.727021859719</v>
       </c>
       <c r="M97" s="64">
-        <v>6.6833234532570902</v>
+        <v>6.7355674580362797</v>
       </c>
       <c r="N97" s="65">
-        <v>14.8940572560606</v>
+        <v>14.9745749126114</v>
       </c>
       <c r="O97" s="65">
-        <v>6.9755589924956496</v>
+        <v>7.0053465063051004</v>
       </c>
       <c r="P97" s="64">
-        <v>53.641100438007697</v>
+        <v>53.950226297576798</v>
       </c>
       <c r="Q97" s="65">
-        <v>29.588408326915701</v>
+        <v>29.2498406573736</v>
       </c>
       <c r="R97" s="64">
-        <v>48.299149749753397</v>
+        <v>48.287325242647</v>
       </c>
       <c r="S97" s="65">
-        <v>1.4728241430668301</v>
+        <v>1.47679177403003</v>
       </c>
       <c r="T97" s="64">
-        <v>491.18530571123699</v>
+        <v>489.52746649856402</v>
       </c>
       <c r="U97" s="64">
-        <v>349.37264488758802</v>
+        <v>348.39970787532098</v>
       </c>
       <c r="V97" s="65">
-        <v>322.06716551581098</v>
+        <v>321.79302933866097</v>
       </c>
       <c r="W97" s="64">
-        <v>16.2989790052196</v>
+        <v>16.301704923941401</v>
       </c>
       <c r="X97" s="65">
-        <v>4.4298097738986897</v>
+        <v>4.4222331207170802</v>
       </c>
       <c r="Y97" s="64">
-        <v>51.552967678138302</v>
+        <v>51.575756822172202</v>
       </c>
       <c r="Z97" s="64">
-        <v>24.279439005056201</v>
+        <v>24.169107000614201</v>
       </c>
       <c r="AA97" s="65">
-        <v>11.514619542577</v>
+        <v>11.5568370738187</v>
       </c>
     </row>
     <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9389,79 +9389,79 @@
         <v>176</v>
       </c>
       <c r="C98" s="57">
-        <v>362946</v>
+        <v>366733</v>
       </c>
       <c r="D98" s="58">
-        <v>452.560822344808</v>
+        <v>453.08028497205999</v>
       </c>
       <c r="E98" s="59">
-        <v>12.5981461750034</v>
+        <v>12.601236223046101</v>
       </c>
       <c r="F98" s="58">
-        <v>327.14643311560701</v>
+        <v>332.56779721687798</v>
       </c>
       <c r="G98" s="59">
-        <v>5.4867710516505603</v>
+        <v>5.5022302910274403</v>
       </c>
       <c r="H98" s="60">
-        <v>13.753868004150201</v>
+        <v>13.764076393125899</v>
       </c>
       <c r="I98" s="57">
-        <v>388171</v>
+        <v>389203</v>
       </c>
       <c r="J98" s="58">
-        <v>484.01411496588099</v>
+        <v>480.84084647953898</v>
       </c>
       <c r="K98" s="59">
-        <v>12.2189103931667</v>
+        <v>12.1395914362278</v>
       </c>
       <c r="L98" s="58">
-        <v>257.87567787979299</v>
+        <v>255.86193390530599</v>
       </c>
       <c r="M98" s="59">
-        <v>4.3955359532330798</v>
+        <v>4.3152344234030497</v>
       </c>
       <c r="N98" s="60">
-        <v>9.3556110302765898</v>
+        <v>9.1831150100233998</v>
       </c>
       <c r="O98" s="60">
-        <v>38.152937467574901</v>
+        <v>37.8529525601976</v>
       </c>
       <c r="P98" s="59">
-        <v>60.1484213857402</v>
+        <v>59.862494316126998</v>
       </c>
       <c r="Q98" s="60">
-        <v>129.04391304846101</v>
+        <v>130.16577658506699</v>
       </c>
       <c r="R98" s="59">
-        <v>138.26979658080199</v>
+        <v>137.60318558706999</v>
       </c>
       <c r="S98" s="60">
-        <v>4.0262708374011202</v>
+        <v>4.0201543010830303</v>
       </c>
       <c r="T98" s="59">
-        <v>152.30999776665999</v>
+        <v>151.19684194073201</v>
       </c>
       <c r="U98" s="59">
-        <v>84.635230523207895</v>
+        <v>84.0760788726501</v>
       </c>
       <c r="V98" s="60">
-        <v>70.885559255316196</v>
+        <v>70.392234668963695</v>
       </c>
       <c r="W98" s="59">
-        <v>40.805114014850297</v>
+        <v>40.556117160925801</v>
       </c>
       <c r="X98" s="60">
-        <v>11.8044924179859</v>
+        <v>11.772603053171499</v>
       </c>
       <c r="Y98" s="59">
-        <v>153.38608068170399</v>
+        <v>154.050731441501</v>
       </c>
       <c r="Z98" s="59">
-        <v>51.728041402782701</v>
+        <v>53.518458564417898</v>
       </c>
       <c r="AA98" s="60">
-        <v>24.228698866999402</v>
+        <v>24.5829841066227</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.35">
@@ -9845,11 +9845,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CE9FBC4E-D3E1-41E2-A14F-7D7A70F17E19}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{01C1776E-60CD-455A-8AB8-F73B4B159E65}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{DA41ECDA-6781-4EBB-A76D-CE7A1B807126}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{1C9205A4-2252-474A-8344-C96EF54EDEC6}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{2CB49CE9-E26C-4C92-A874-E1C5E3B4C035}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1F54F51C-5059-46CD-8B27-CAAECEB1C327}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{FC9D8BF2-684B-4408-93FF-D0F2B962CC0F}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{EE6B896F-C62A-4AA7-B922-89BB30263DC3}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{96124382-A7E4-4855-ACF6-67E9E18459F7}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{AD741097-0210-404D-8FB6-DAEADA18DCC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab30.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3598C3DF-FE40-4FE3-A39D-06641B5DAF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B73AD3-F30E-4ACA-A674-0208F9E7F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E715AD87-A89C-494D-B2C2-43E4D61DDFE6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B87176DF-9BAE-4A5D-8BCF-9E5B37865B89}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0402A8AF-CB4B-44AA-9D4C-26FBFE6EED9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F84ED62-7AD7-4954-8D52-B7F8ED44073C}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -9845,11 +9845,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1F54F51C-5059-46CD-8B27-CAAECEB1C327}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{FC9D8BF2-684B-4408-93FF-D0F2B962CC0F}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{EE6B896F-C62A-4AA7-B922-89BB30263DC3}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{96124382-A7E4-4855-ACF6-67E9E18459F7}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{AD741097-0210-404D-8FB6-DAEADA18DCC2}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A97783F3-2B5F-406C-8607-9661D2E0FE07}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{07CC5418-B65C-48BA-93DA-C82E189E714E}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{46C98945-699E-42D8-8A43-A21CACEE9C1D}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{511B303D-3842-4EFC-96F4-66C12F26CD42}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{ED3D824C-735F-4105-9498-DBCAB4AAD0D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab30.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B73AD3-F30E-4ACA-A674-0208F9E7F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DBF5970-87E6-4414-B62D-19948A9082C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B87176DF-9BAE-4A5D-8BCF-9E5B37865B89}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{CA049565-CA2E-42BE-821E-F35FBFAF2F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="187">
   <si>
     <t>Tableau 30 : Causes environnementales des décès prématurés</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
+  </si>
+  <si>
+    <t>Source : Calculs de l'auteur basés sur les Statistiques de l'environnement de l'OCDE (base de données, consultée le 21 février 2023) et les données démographiques de World Population Prospects : the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1449,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F84ED62-7AD7-4954-8D52-B7F8ED44073C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E257B8-DE16-4FB8-A3E0-2EC04CF96171}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -9590,8 +9593,8 @@
       <c r="AA103" s="69"/>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A104" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E104" s="69"/>
       <c r="G104" s="69"/>
@@ -9657,7 +9660,7 @@
     </row>
     <row r="107" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E107" s="69"/>
       <c r="G107" s="69"/>
@@ -9703,7 +9706,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E109" s="69"/>
       <c r="G109" s="69"/>
@@ -9727,7 +9730,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E110" s="69"/>
       <c r="G110" s="69"/>
@@ -9774,7 +9777,7 @@
     <row r="112" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E112" s="69"/>
       <c r="G112" s="69"/>
@@ -9799,7 +9802,7 @@
     <row r="113" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E113" s="69"/>
       <c r="G113" s="69"/>
@@ -9845,11 +9848,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A97783F3-2B5F-406C-8607-9661D2E0FE07}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{07CC5418-B65C-48BA-93DA-C82E189E714E}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{46C98945-699E-42D8-8A43-A21CACEE9C1D}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{511B303D-3842-4EFC-96F4-66C12F26CD42}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{ED3D824C-735F-4105-9498-DBCAB4AAD0D7}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{EB26BB50-1111-43F1-8D61-B10B6925C1B5}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1547A442-D5F7-40B9-BA11-8D52F7FFD226}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{118A3B46-AA99-443E-A0C4-FC2B5E1ACD2E}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{EF66424C-53CE-43CE-A06C-0E505759FD21}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{EC9BBD78-B7ED-4C18-BD98-DD1AB25DBC1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab30.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DBF5970-87E6-4414-B62D-19948A9082C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80D4612-5C2D-4EE2-B075-5D32BF4C2404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{CA049565-CA2E-42BE-821E-F35FBFAF2F41}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D8D1971F-8E5A-4EAF-AF6B-E5815089889A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="188">
   <si>
     <t>Tableau 30 : Causes environnementales des décès prématurés</t>
   </si>
@@ -587,16 +587,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E257B8-DE16-4FB8-A3E0-2EC04CF96171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5310EFAD-6CD5-4D77-82DE-D589FED340C9}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -9706,7 +9709,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E109" s="69"/>
       <c r="G109" s="69"/>
@@ -9730,7 +9733,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E110" s="69"/>
       <c r="G110" s="69"/>
@@ -9753,7 +9756,9 @@
       <c r="AA110" s="69"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E111" s="69"/>
       <c r="G111" s="69"/>
       <c r="H111" s="69"/>
@@ -9777,7 +9782,7 @@
     <row r="112" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E112" s="69"/>
       <c r="G112" s="69"/>
@@ -9802,7 +9807,7 @@
     <row r="113" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E113" s="69"/>
       <c r="G113" s="69"/>
@@ -9848,13 +9853,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{EB26BB50-1111-43F1-8D61-B10B6925C1B5}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1547A442-D5F7-40B9-BA11-8D52F7FFD226}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{118A3B46-AA99-443E-A0C4-FC2B5E1ACD2E}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{EF66424C-53CE-43CE-A06C-0E505759FD21}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{EC9BBD78-B7ED-4C18-BD98-DD1AB25DBC1E}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BCEBE3BA-95DE-4A85-ACAA-12185C25F32D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6040A7FD-EBB9-4AC0-BBCA-DD37D7C03771}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{A61C87F1-1ECB-49AB-A3AD-3DA147FF4C8D}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{690CA4D4-3478-4010-9CE6-5A87404C9089}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{31E868CF-CC77-489F-86C8-2ADC8E28838D}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{904D1B8B-E79F-41AC-A959-2853E39F2796}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab30.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80D4612-5C2D-4EE2-B075-5D32BF4C2404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{486ED1EF-FB5E-45D1-AA12-2E4C01C35266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D8D1971F-8E5A-4EAF-AF6B-E5815089889A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{F7D37F47-E904-4AA2-93E8-536426A3729B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab30'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1455,19 +1455,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5310EFAD-6CD5-4D77-82DE-D589FED340C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FD7003-7F30-4F26-B78B-4BE8689DB97F}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="12.36328125" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="12.33203125" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1497,7 +1497,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>8.6852809030021696</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>18.802241227154301</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>23.084558738659702</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>27.407083248341401</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>9.0632822215450997</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>9.8066423988037901</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>13.8965865078859</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>42</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>24.979748069513899</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>44</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>8.7048883443014002</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>46</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>12.048500358980201</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>48</v>
       </c>
@@ -2430,10 +2430,10 @@
         <v>239.960588364899</v>
       </c>
       <c r="G13" s="31">
-        <v>3.8232899426087101</v>
+        <v>3.8232215962359799</v>
       </c>
       <c r="H13" s="32">
-        <v>6.0675759319709703</v>
+        <v>6.0674919746544003</v>
       </c>
       <c r="I13" s="29">
         <v>73079</v>
@@ -2448,10 +2448,10 @@
         <v>154.90191934504301</v>
       </c>
       <c r="M13" s="31">
-        <v>2.3143969157089601</v>
+        <v>2.31456772197732</v>
       </c>
       <c r="N13" s="32">
-        <v>4.4166704886044803</v>
+        <v>4.4169535711834804</v>
       </c>
       <c r="O13" s="32">
         <v>6.5173000932827101</v>
@@ -2493,7 +2493,7 @@
         <v>14.939149031393001</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>50</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>8.4211675140326108</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>21.565148021275501</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>54</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>13.0535171166163</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>11.657565704334599</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>14.719789069012799</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>60</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>8.5977837738576</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>62</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>10.302434400858701</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>18.280834640487299</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>66</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>18.639415840707599</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
         <v>48</v>
       </c>
@@ -3260,10 +3260,10 @@
         <v>55.941530659303197</v>
       </c>
       <c r="G23" s="31">
-        <v>3.1035845591530702</v>
+        <v>3.1099331854721499</v>
       </c>
       <c r="H23" s="32">
-        <v>6.84518140226076</v>
+        <v>6.8548770760273099</v>
       </c>
       <c r="I23" s="29">
         <v>108015</v>
@@ -3278,10 +3278,10 @@
         <v>102.614885484895</v>
       </c>
       <c r="M23" s="31">
-        <v>5.7223818562038904</v>
+        <v>5.7101125237588004</v>
       </c>
       <c r="N23" s="32">
-        <v>13.13257770968</v>
+        <v>13.0979600927452</v>
       </c>
       <c r="O23" s="32">
         <v>10.6195422659265</v>
@@ -3323,7 +3323,7 @@
         <v>11.5344760915708</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>69</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>15.1709385501134</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>71</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>13.9665584723937</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>73</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>20.578378183718002</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>74</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>6.6859098192215898</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>76</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>8.7534309622199196</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>78</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>9.1162887595723792</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>80</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>33.171871178966903</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>82</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>9.3494147422194995</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>84</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>9.5811137086574991</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>86</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>10.1994205727945</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>89</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>8.2315035721854102</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>91</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>8.6972425785631096</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>93</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>9.3531965609832906</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>95</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>7.2876997598085902</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="27" t="s">
         <v>48</v>
       </c>
@@ -4503,10 +4503,10 @@
         <v>33.978604430136599</v>
       </c>
       <c r="G38" s="31">
-        <v>1.3236006663155799</v>
+        <v>1.3245840392668</v>
       </c>
       <c r="H38" s="32">
-        <v>3.3057872835409698</v>
+        <v>3.3073516857373502</v>
       </c>
       <c r="I38" s="29">
         <v>232273</v>
@@ -4521,10 +4521,10 @@
         <v>158.25531077769</v>
       </c>
       <c r="M38" s="31">
-        <v>6.1651227782007902</v>
+        <v>6.1628548334160396</v>
       </c>
       <c r="N38" s="32">
-        <v>17.0923600897172</v>
+        <v>17.085642495615101</v>
       </c>
       <c r="O38" s="32">
         <v>5.5863544031636296</v>
@@ -4566,7 +4566,7 @@
         <v>8.3730328211214804</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>13.792177133329</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>100</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>25.412173572985001</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>102</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>13.3960756805206</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>104</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>18.933138192747599</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>106</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>18.482604095899301</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>108</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>18.5902699522977</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="27" t="s">
         <v>48</v>
       </c>
@@ -5084,10 +5084,10 @@
         <v>982.67086028343897</v>
       </c>
       <c r="G45" s="31">
-        <v>8.4204550988883593</v>
+        <v>8.4205414941992895</v>
       </c>
       <c r="H45" s="32">
-        <v>21.0528836209864</v>
+        <v>21.0530827814597</v>
       </c>
       <c r="I45" s="29">
         <v>3055</v>
@@ -5102,10 +5102,10 @@
         <v>11.135804655657401</v>
       </c>
       <c r="M45" s="31">
-        <v>0.11268827452914</v>
+        <v>0.11268289160202</v>
       </c>
       <c r="N45" s="32">
-        <v>0.27802832054030002</v>
+        <v>0.27801480739246998</v>
       </c>
       <c r="O45" s="32">
         <v>15.489039176129101</v>
@@ -5147,7 +5147,7 @@
         <v>20.897680654609601</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>111</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>14.8896166810573</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>113</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>16.943781820601199</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>115</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>29.461206523057701</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>117</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>17.630714249300102</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>119</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>17.139094513736001</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>121</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>26.108509248534901</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>123</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>18.248829861732901</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>125</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>18.269882707352998</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>127</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>14.4424927020279</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>129</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>16.579616387545698</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>131</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>11.4744482592601</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>133</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>15.134933663935</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>135</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>19.061569557136</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>137</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>15.658343884074601</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>139</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>16.377345690829198</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="27"/>
       <c r="B61" s="28" t="s">
         <v>141</v>
@@ -6410,10 +6410,10 @@
         <v>159.3988831314</v>
       </c>
       <c r="G61" s="31">
-        <v>3.7948047935917502</v>
+        <v>3.7954962898682201</v>
       </c>
       <c r="H61" s="32">
-        <v>7.66096101048152</v>
+        <v>7.6622629467263099</v>
       </c>
       <c r="I61" s="29">
         <v>280512</v>
@@ -6428,10 +6428,10 @@
         <v>322.94268224011302</v>
       </c>
       <c r="M61" s="31">
-        <v>7.7870874830496302</v>
+        <v>7.7866349623522497</v>
       </c>
       <c r="N61" s="32">
-        <v>15.766067955974901</v>
+        <v>15.7644264706401</v>
       </c>
       <c r="O61" s="32">
         <v>7.79285873862852</v>
@@ -6473,7 +6473,7 @@
         <v>16.465146415145298</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="39"/>
       <c r="B62" s="40" t="s">
         <v>142</v>
@@ -6491,10 +6491,10 @@
         <v>262.61550122536102</v>
       </c>
       <c r="G62" s="43">
-        <v>5.1252585815629201</v>
+        <v>5.1254208875877501</v>
       </c>
       <c r="H62" s="44">
-        <v>11.617925021089</v>
+        <v>11.618058301123201</v>
       </c>
       <c r="I62" s="41">
         <v>696934</v>
@@ -6509,10 +6509,10 @@
         <v>178.01292164017599</v>
       </c>
       <c r="M62" s="43">
-        <v>3.5879847362866202</v>
+        <v>3.5871114577941099</v>
       </c>
       <c r="N62" s="44">
-        <v>7.9251220421018296</v>
+        <v>7.92286675586102</v>
       </c>
       <c r="O62" s="44">
         <v>8.5209600582440892</v>
@@ -6554,7 +6554,7 @@
         <v>14.0130499099111</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="39"/>
       <c r="B63" s="45" t="s">
         <v>143</v>
@@ -6572,10 +6572,10 @@
         <v>935.14943449997702</v>
       </c>
       <c r="G63" s="48">
-        <v>4.9552065252522803</v>
+        <v>4.9540680353166602</v>
       </c>
       <c r="H63" s="49">
-        <v>9.9898682256697704</v>
+        <v>9.9884966936054198</v>
       </c>
       <c r="I63" s="46">
         <v>1614783</v>
@@ -6590,10 +6590,10 @@
         <v>255.950200353588</v>
       </c>
       <c r="M63" s="48">
-        <v>1.35732190175552</v>
+        <v>1.3570372437707101</v>
       </c>
       <c r="N63" s="49">
-        <v>2.6799058583351698</v>
+        <v>2.6796678959123699</v>
       </c>
       <c r="O63" s="49">
         <v>55.267983698248301</v>
@@ -6635,7 +6635,7 @@
         <v>44.498417413079203</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="50"/>
       <c r="B64" s="51" t="s">
         <v>144</v>
@@ -6653,10 +6653,10 @@
         <v>411.044203110556</v>
       </c>
       <c r="G64" s="43">
-        <v>2.8365064013866799</v>
+        <v>2.83736886704326</v>
       </c>
       <c r="H64" s="44">
-        <v>7.5380744412778702</v>
+        <v>7.5406207827627298</v>
       </c>
       <c r="I64" s="41">
         <v>59309</v>
@@ -6671,10 +6671,10 @@
         <v>110.162902657863</v>
       </c>
       <c r="M64" s="43">
-        <v>0.76499479143844995</v>
+        <v>0.76532731318103997</v>
       </c>
       <c r="N64" s="44">
-        <v>2.0570041628457099</v>
+        <v>2.05777550109396</v>
       </c>
       <c r="O64" s="44">
         <v>12.4613189434214</v>
@@ -6716,7 +6716,7 @@
         <v>28.0013533447325</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="50"/>
       <c r="B65" s="40" t="s">
         <v>145</v>
@@ -6734,10 +6734,10 @@
         <v>909.37588615385096</v>
       </c>
       <c r="G65" s="54">
-        <v>8.5657940914746291</v>
+        <v>8.5658351916113507</v>
       </c>
       <c r="H65" s="55">
-        <v>16.743336431588101</v>
+        <v>16.743085407429099</v>
       </c>
       <c r="I65" s="52">
         <v>1518184</v>
@@ -6752,10 +6752,10 @@
         <v>356.32571336973899</v>
       </c>
       <c r="M65" s="54">
-        <v>3.40945624392285</v>
+        <v>3.40961334463872</v>
       </c>
       <c r="N65" s="55">
-        <v>6.7215684546421297</v>
+        <v>6.7219108578748399</v>
       </c>
       <c r="O65" s="55">
         <v>72.301921855597996</v>
@@ -6797,7 +6797,7 @@
         <v>18.715030103292399</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="50"/>
       <c r="B66" s="56" t="s">
         <v>146</v>
@@ -6815,10 +6815,10 @@
         <v>823.85477370668002</v>
       </c>
       <c r="G66" s="59">
-        <v>4.9637099360933901</v>
+        <v>4.9626336763880703</v>
       </c>
       <c r="H66" s="60">
-        <v>10.071278801375</v>
+        <v>10.0699557393625</v>
       </c>
       <c r="I66" s="57">
         <v>2311717</v>
@@ -6833,10 +6833,10 @@
         <v>243.052705419277</v>
       </c>
       <c r="M66" s="59">
-        <v>1.4688656427812401</v>
+        <v>1.4685149053722899</v>
       </c>
       <c r="N66" s="60">
-        <v>2.9421915908846699</v>
+        <v>2.94176659403806</v>
       </c>
       <c r="O66" s="60">
         <v>47.237306905507197</v>
@@ -6878,7 +6878,7 @@
         <v>39.261332476694697</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="50"/>
       <c r="B67" s="61" t="s">
         <v>147</v>
@@ -6896,16 +6896,16 @@
         <v>307.12593240186402</v>
       </c>
       <c r="G67" s="64">
-        <v>6.3250476831508902</v>
+        <v>6.3251101448971498</v>
       </c>
       <c r="H67" s="65">
-        <v>15.8096153138454</v>
+        <v>15.809428496655</v>
       </c>
       <c r="I67" s="62">
         <v>285276</v>
       </c>
       <c r="J67" s="63">
-        <v>480.13494270018703</v>
+        <v>480.13494270018799</v>
       </c>
       <c r="K67" s="64">
         <v>14.3195980989662</v>
@@ -6914,10 +6914,10 @@
         <v>98.074989499631798</v>
       </c>
       <c r="M67" s="64">
-        <v>2.28516070623238</v>
+        <v>2.28464538664843</v>
       </c>
       <c r="N67" s="65">
-        <v>6.4088794278249104</v>
+        <v>6.4072108878088896</v>
       </c>
       <c r="O67" s="65">
         <v>8.8461323729727894</v>
@@ -6959,7 +6959,7 @@
         <v>11.7594990277703</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="50"/>
       <c r="B68" s="40" t="s">
         <v>148</v>
@@ -6977,10 +6977,10 @@
         <v>413.62987665352199</v>
       </c>
       <c r="G68" s="54">
-        <v>6.62122909374893</v>
+        <v>6.62232320160944</v>
       </c>
       <c r="H68" s="55">
-        <v>15.348313728070099</v>
+        <v>15.3510155043476</v>
       </c>
       <c r="I68" s="52">
         <v>350267</v>
@@ -6995,10 +6995,10 @@
         <v>230.78856152885001</v>
       </c>
       <c r="M68" s="54">
-        <v>3.8073213204125702</v>
+        <v>3.8061152538608498</v>
       </c>
       <c r="N68" s="55">
-        <v>7.6693119122204099</v>
+        <v>7.66649338433339</v>
       </c>
       <c r="O68" s="55">
         <v>9.97160661342126</v>
@@ -7040,7 +7040,7 @@
         <v>17.273784858828201</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="50"/>
       <c r="B69" s="40" t="s">
         <v>149</v>
@@ -7058,10 +7058,10 @@
         <v>27.204208151041801</v>
       </c>
       <c r="G69" s="54">
-        <v>1.29465671088663</v>
+        <v>1.29469953981599</v>
       </c>
       <c r="H69" s="55">
-        <v>3.35304303383738</v>
+        <v>3.3530004973352701</v>
       </c>
       <c r="I69" s="52">
         <v>167463</v>
@@ -7076,10 +7076,10 @@
         <v>138.13505228194799</v>
       </c>
       <c r="M69" s="54">
-        <v>6.4805510300861897</v>
+        <v>6.4807802880922001</v>
       </c>
       <c r="N69" s="55">
-        <v>16.7380457527902</v>
+        <v>16.737870576172099</v>
       </c>
       <c r="O69" s="55">
         <v>7.2300166794978598</v>
@@ -7121,7 +7121,7 @@
         <v>8.5999900780931799</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="50"/>
       <c r="B70" s="40" t="s">
         <v>150</v>
@@ -7139,10 +7139,10 @@
         <v>65.588275118032499</v>
       </c>
       <c r="G70" s="54">
-        <v>2.6283535672707901</v>
+        <v>2.6335705004344798</v>
       </c>
       <c r="H70" s="55">
-        <v>6.1207802090208601</v>
+        <v>6.1287397284837004</v>
       </c>
       <c r="I70" s="52">
         <v>124209</v>
@@ -7157,10 +7157,10 @@
         <v>119.49728582703599</v>
       </c>
       <c r="M70" s="54">
-        <v>4.7950983125524997</v>
+        <v>4.7912672862428103</v>
       </c>
       <c r="N70" s="55">
-        <v>11.5554374270717</v>
+        <v>11.541054065330799</v>
       </c>
       <c r="O70" s="55">
         <v>9.6970578728711594</v>
@@ -7196,13 +7196,13 @@
         <v>40.624535108929599</v>
       </c>
       <c r="Z70" s="54">
-        <v>21.416995666563999</v>
+        <v>21.416995666564102</v>
       </c>
       <c r="AA70" s="55">
         <v>10.9441731638632</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="50"/>
       <c r="B71" s="40" t="s">
         <v>151</v>
@@ -7220,10 +7220,10 @@
         <v>159.3988831314</v>
       </c>
       <c r="G71" s="54">
-        <v>3.7948047935917502</v>
+        <v>3.7954962898682201</v>
       </c>
       <c r="H71" s="55">
-        <v>7.66096101048152</v>
+        <v>7.6622629467263099</v>
       </c>
       <c r="I71" s="52">
         <v>280512</v>
@@ -7238,10 +7238,10 @@
         <v>322.94268224011302</v>
       </c>
       <c r="M71" s="54">
-        <v>7.7870874830496302</v>
+        <v>7.7866349623522497</v>
       </c>
       <c r="N71" s="55">
-        <v>15.766067955974901</v>
+        <v>15.7644264706401</v>
       </c>
       <c r="O71" s="55">
         <v>7.79285873862852</v>
@@ -7283,7 +7283,7 @@
         <v>16.465146415145298</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="50"/>
       <c r="B72" s="40" t="s">
         <v>152</v>
@@ -7301,10 +7301,10 @@
         <v>28.9689793653381</v>
       </c>
       <c r="G72" s="54">
-        <v>1.13126521276418</v>
+        <v>1.13128179482923</v>
       </c>
       <c r="H72" s="55">
-        <v>3.1524196889997498</v>
+        <v>3.1523555946151101</v>
       </c>
       <c r="I72" s="52">
         <v>163615</v>
@@ -7319,10 +7319,10 @@
         <v>145.57196229839801</v>
       </c>
       <c r="M72" s="54">
-        <v>5.7101988389666403</v>
+        <v>5.71028961611953</v>
       </c>
       <c r="N72" s="55">
-        <v>17.0971781791146</v>
+        <v>17.097093836136299</v>
       </c>
       <c r="O72" s="55">
         <v>6.1114950330639903</v>
@@ -7364,7 +7364,7 @@
         <v>7.91482892977678</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="50"/>
       <c r="B73" s="40" t="s">
         <v>153</v>
@@ -7382,16 +7382,16 @@
         <v>135.19491260158301</v>
       </c>
       <c r="G73" s="54">
-        <v>3.3716196462049099</v>
+        <v>3.37162953502644</v>
       </c>
       <c r="H73" s="55">
-        <v>5.57524911130447</v>
+        <v>5.5755523107011804</v>
       </c>
       <c r="I73" s="52">
         <v>192307</v>
       </c>
       <c r="J73" s="53">
-        <v>532.44890633368902</v>
+        <v>532.448906333688</v>
       </c>
       <c r="K73" s="54">
         <v>14.712294858994801</v>
@@ -7400,10 +7400,10 @@
         <v>141.34775309031301</v>
       </c>
       <c r="M73" s="54">
-        <v>3.32629819424784</v>
+        <v>3.32577597510224</v>
       </c>
       <c r="N73" s="55">
-        <v>7.2730716827344404</v>
+        <v>7.2718806499903401</v>
       </c>
       <c r="O73" s="55">
         <v>6.9855418194860102</v>
@@ -7439,13 +7439,13 @@
         <v>62.277365099365397</v>
       </c>
       <c r="Z73" s="54">
-        <v>33.903273713676697</v>
+        <v>33.903273713676597</v>
       </c>
       <c r="AA73" s="55">
         <v>12.055112596925101</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="50"/>
       <c r="B74" s="40" t="s">
         <v>153</v>
@@ -7463,10 +7463,10 @@
         <v>655.73767223287996</v>
       </c>
       <c r="G74" s="54">
-        <v>6.4807275119808301</v>
+        <v>6.4807287727659704</v>
       </c>
       <c r="H74" s="55">
-        <v>16.556241861913101</v>
+        <v>16.556242395902501</v>
       </c>
       <c r="I74" s="52">
         <v>2982</v>
@@ -7481,10 +7481,10 @@
         <v>21.5781939058832</v>
       </c>
       <c r="M74" s="54">
-        <v>0.23114779215431</v>
+        <v>0.23114748739825999</v>
       </c>
       <c r="N74" s="55">
-        <v>0.57049791566056995</v>
+        <v>0.57049668741041004</v>
       </c>
       <c r="O74" s="55">
         <v>15.743241880128901</v>
@@ -7526,7 +7526,7 @@
         <v>16.2235774044915</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="50"/>
       <c r="B75" s="56" t="s">
         <v>154</v>
@@ -7544,10 +7544,10 @@
         <v>72.139751598394099</v>
       </c>
       <c r="G75" s="59">
-        <v>1.95302095720379</v>
+        <v>1.95533583111381</v>
       </c>
       <c r="H75" s="60">
-        <v>4.8566229250796997</v>
+        <v>4.8612459451435202</v>
       </c>
       <c r="I75" s="57">
         <v>35568</v>
@@ -7562,10 +7562,10 @@
         <v>155.222693553434</v>
       </c>
       <c r="M75" s="59">
-        <v>4.0982293855434104</v>
+        <v>4.0967173843582403</v>
       </c>
       <c r="N75" s="60">
-        <v>9.6647323210012104</v>
+        <v>9.6597842907987292</v>
       </c>
       <c r="O75" s="60">
         <v>3.7766851859814099</v>
@@ -7607,7 +7607,7 @@
         <v>9.7092918748914805</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="50"/>
       <c r="B76" s="61" t="s">
         <v>155</v>
@@ -7625,10 +7625,10 @@
         <v>497.398462334432</v>
       </c>
       <c r="G76" s="64">
-        <v>4.0765025159190396</v>
+        <v>4.0765022912667099</v>
       </c>
       <c r="H76" s="65">
-        <v>9.7396446170705904</v>
+        <v>9.7396445491636996</v>
       </c>
       <c r="I76" s="62">
         <v>229941</v>
@@ -7643,10 +7643,10 @@
         <v>351.66947067633703</v>
       </c>
       <c r="M76" s="64">
-        <v>2.8938185005195698</v>
+        <v>2.8938182722672199</v>
       </c>
       <c r="N76" s="65">
-        <v>6.1258311626315898</v>
+        <v>6.1258307243664003</v>
       </c>
       <c r="O76" s="65">
         <v>13.6609909640891</v>
@@ -7688,7 +7688,7 @@
         <v>10.9701439812156</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="50"/>
       <c r="B77" s="40" t="s">
         <v>156</v>
@@ -7706,10 +7706,10 @@
         <v>384.47709782547503</v>
       </c>
       <c r="G77" s="54">
-        <v>2.6385420178142902</v>
+        <v>2.6385009461528202</v>
       </c>
       <c r="H77" s="55">
-        <v>7.1986284199257904</v>
+        <v>7.1982132799805196</v>
       </c>
       <c r="I77" s="52">
         <v>24047</v>
@@ -7724,10 +7724,10 @@
         <v>89.886909178688001</v>
       </c>
       <c r="M77" s="54">
-        <v>0.60571749259299001</v>
+        <v>0.60565031069470998</v>
       </c>
       <c r="N77" s="55">
-        <v>1.6848546504870101</v>
+        <v>1.6846591558503401</v>
       </c>
       <c r="O77" s="55">
         <v>12.4768614236825</v>
@@ -7769,7 +7769,7 @@
         <v>27.484678870244998</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="50"/>
       <c r="B78" s="40" t="s">
         <v>156</v>
@@ -7787,10 +7787,10 @@
         <v>1461.6650047216101</v>
       </c>
       <c r="G78" s="54">
-        <v>3.4952498475670399</v>
+        <v>3.49513268572667</v>
       </c>
       <c r="H78" s="55">
-        <v>5.3015030209817704</v>
+        <v>5.30140422599617</v>
       </c>
       <c r="I78" s="52">
         <v>9423</v>
@@ -7805,10 +7805,10 @@
         <v>66.380226998324602</v>
       </c>
       <c r="M78" s="54">
-        <v>0.15683436540539</v>
+        <v>0.15682336127259</v>
       </c>
       <c r="N78" s="55">
-        <v>0.17435280388095001</v>
+        <v>0.17434128409693</v>
       </c>
       <c r="O78" s="55">
         <v>31.730660108173002</v>
@@ -7850,7 +7850,7 @@
         <v>136.220952983334</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="50"/>
       <c r="B79" s="56" t="s">
         <v>157</v>
@@ -7868,10 +7868,10 @@
         <v>1047.4878510532101</v>
       </c>
       <c r="G79" s="59">
-        <v>2.4396252356936601</v>
+        <v>2.4403554600541999</v>
       </c>
       <c r="H79" s="60">
-        <v>4.9926397402272</v>
+        <v>4.9958623511565401</v>
       </c>
       <c r="I79" s="57">
         <v>18287</v>
@@ -7886,10 +7886,10 @@
         <v>32.185890099389901</v>
       </c>
       <c r="M79" s="59">
-        <v>7.6000109315329994E-2</v>
+        <v>7.6767478768980005E-2</v>
       </c>
       <c r="N79" s="60">
-        <v>0.16665436551012999</v>
+        <v>0.16870141105782999</v>
       </c>
       <c r="O79" s="60">
         <v>28.202971854713301</v>
@@ -7931,7 +7931,7 @@
         <v>101.665947510666</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="50"/>
       <c r="B80" s="61" t="s">
         <v>158</v>
@@ -7949,10 +7949,10 @@
         <v>373.76550576920999</v>
       </c>
       <c r="G80" s="64">
-        <v>4.4524452303257398</v>
+        <v>4.4521074650341497</v>
       </c>
       <c r="H80" s="65">
-        <v>13.118250214764499</v>
+        <v>13.109416891556201</v>
       </c>
       <c r="I80" s="62">
         <v>38642</v>
@@ -7967,10 +7967,10 @@
         <v>99.105416576030194</v>
       </c>
       <c r="M80" s="64">
-        <v>1.23183465091191</v>
+        <v>1.23703533698228</v>
       </c>
       <c r="N80" s="65">
-        <v>2.88744575616977</v>
+        <v>2.8976083317907699</v>
       </c>
       <c r="O80" s="65">
         <v>9.0508444694969992</v>
@@ -8012,7 +8012,7 @@
         <v>12.005222916708799</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="50"/>
       <c r="B81" s="40" t="s">
         <v>159</v>
@@ -8030,10 +8030,10 @@
         <v>1009.01280874751</v>
       </c>
       <c r="G81" s="54">
-        <v>5.0614930615822198</v>
+        <v>5.0610203232147102</v>
       </c>
       <c r="H81" s="55">
-        <v>14.139338064116799</v>
+        <v>14.1379762638066</v>
       </c>
       <c r="I81" s="52">
         <v>31441</v>
@@ -8048,10 +8048,10 @@
         <v>51.980400913448797</v>
       </c>
       <c r="M81" s="54">
-        <v>0.24656768288457001</v>
+        <v>0.24674527579715999</v>
       </c>
       <c r="N81" s="55">
-        <v>0.43615820565102997</v>
+        <v>0.43664061701212997</v>
       </c>
       <c r="O81" s="55">
         <v>11.043695530192499</v>
@@ -8093,7 +8093,7 @@
         <v>89.707544734913697</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="50"/>
       <c r="B82" s="40" t="s">
         <v>160</v>
@@ -8111,10 +8111,10 @@
         <v>251.72723928924199</v>
       </c>
       <c r="G82" s="54">
-        <v>5.2471486786844599</v>
+        <v>5.2476844292443303</v>
       </c>
       <c r="H82" s="55">
-        <v>11.3461189054185</v>
+        <v>11.3472501202098</v>
       </c>
       <c r="I82" s="52">
         <v>658292</v>
@@ -8129,10 +8129,10 @@
         <v>185.74270615426499</v>
       </c>
       <c r="M82" s="54">
-        <v>4.0148361984509204</v>
+        <v>4.0138497643071096</v>
       </c>
       <c r="N82" s="55">
-        <v>8.8377716657010392</v>
+        <v>8.83537773824448</v>
       </c>
       <c r="O82" s="55">
         <v>8.4670062745294796</v>
@@ -8174,7 +8174,7 @@
         <v>14.217490465298299</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="50"/>
       <c r="B83" s="56" t="s">
         <v>161</v>
@@ -8192,10 +8192,10 @@
         <v>928.89080609407995</v>
       </c>
       <c r="G83" s="59">
-        <v>4.9453460168992898</v>
+        <v>4.9441537424883997</v>
       </c>
       <c r="H83" s="60">
-        <v>9.6049099476477604</v>
+        <v>9.6038470862677894</v>
       </c>
       <c r="I83" s="57">
         <v>1583342</v>
@@ -8210,10 +8210,10 @@
         <v>273.233071515728</v>
       </c>
       <c r="M83" s="59">
-        <v>1.46036977245948</v>
+        <v>1.4599593963649999</v>
       </c>
       <c r="N83" s="60">
-        <v>2.8880647958192101</v>
+        <v>2.8875926603268001</v>
       </c>
       <c r="O83" s="60">
         <v>58.978843515289398</v>
@@ -8255,7 +8255,7 @@
         <v>40.704919747168198</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="50"/>
       <c r="B84" s="61" t="s">
         <v>162</v>
@@ -8273,10 +8273,10 @@
         <v>21.129184584756501</v>
       </c>
       <c r="G84" s="64">
-        <v>1.23236261361852</v>
+        <v>1.23226436407572</v>
       </c>
       <c r="H84" s="65">
-        <v>3.2464627458376398</v>
+        <v>3.24609621116279</v>
       </c>
       <c r="I84" s="62">
         <v>416380</v>
@@ -8291,10 +8291,10 @@
         <v>128.91160963294999</v>
       </c>
       <c r="M84" s="64">
-        <v>7.5279995149322296</v>
+        <v>7.5284875358185204</v>
       </c>
       <c r="N84" s="65">
-        <v>19.9931562684474</v>
+        <v>19.993969975050501</v>
       </c>
       <c r="O84" s="65">
         <v>7.2285498294187098</v>
@@ -8336,7 +8336,7 @@
         <v>9.7602241512577308</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="50"/>
       <c r="B85" s="40" t="s">
         <v>163</v>
@@ -8354,10 +8354,10 @@
         <v>58.046573859246699</v>
       </c>
       <c r="G85" s="54">
-        <v>2.9977510548676598</v>
+        <v>3.0004606622270602</v>
       </c>
       <c r="H85" s="55">
-        <v>9.0539782700017106</v>
+        <v>9.0619583701788997</v>
       </c>
       <c r="I85" s="52">
         <v>69410</v>
@@ -8372,10 +8372,10 @@
         <v>111.902081701722</v>
       </c>
       <c r="M85" s="54">
-        <v>5.6362307228256698</v>
+        <v>5.6292743370655103</v>
       </c>
       <c r="N85" s="55">
-        <v>17.0899731485061</v>
+        <v>17.068579688456602</v>
       </c>
       <c r="O85" s="55">
         <v>42.285361048519299</v>
@@ -8417,7 +8417,7 @@
         <v>11.322404683217499</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="50"/>
       <c r="B86" s="40" t="s">
         <v>164</v>
@@ -8435,10 +8435,10 @@
         <v>399.08705777375002</v>
       </c>
       <c r="G86" s="54">
-        <v>6.0234276940211</v>
+        <v>6.0232797442644603</v>
       </c>
       <c r="H86" s="55">
-        <v>14.087171256429301</v>
+        <v>14.0864428425844</v>
       </c>
       <c r="I86" s="52">
         <v>274378</v>
@@ -8453,10 +8453,10 @@
         <v>220.34042056348099</v>
       </c>
       <c r="M86" s="54">
-        <v>3.4734832434519101</v>
+        <v>3.47259706026037</v>
       </c>
       <c r="N86" s="55">
-        <v>7.12701569161666</v>
+        <v>7.1249888888380699</v>
       </c>
       <c r="O86" s="55">
         <v>9.3943385426050394</v>
@@ -8498,7 +8498,7 @@
         <v>16.532986676655302</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="50"/>
       <c r="B87" s="40" t="s">
         <v>165</v>
@@ -8516,10 +8516,10 @@
         <v>489.13101406382299</v>
       </c>
       <c r="G87" s="54">
-        <v>6.7010541903778602</v>
+        <v>6.7009715342019103</v>
       </c>
       <c r="H87" s="55">
-        <v>13.678789002450699</v>
+        <v>13.678645697189101</v>
       </c>
       <c r="I87" s="52">
         <v>1114535</v>
@@ -8534,10 +8534,10 @@
         <v>329.04667467566702</v>
       </c>
       <c r="M87" s="54">
-        <v>4.5348090603425</v>
+        <v>4.5347846783338497</v>
       </c>
       <c r="N87" s="55">
-        <v>9.2839129828572204</v>
+        <v>9.2839055372547907</v>
       </c>
       <c r="O87" s="55">
         <v>78.468604403623004</v>
@@ -8579,7 +8579,7 @@
         <v>22.514679912850799</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="50"/>
       <c r="B88" s="40" t="s">
         <v>166</v>
@@ -8597,10 +8597,10 @@
         <v>608.62040274833896</v>
       </c>
       <c r="G88" s="54">
-        <v>4.7100821236573998</v>
+        <v>4.7100868593663403</v>
       </c>
       <c r="H88" s="55">
-        <v>8.5808026709273602</v>
+        <v>8.5808943774901199</v>
       </c>
       <c r="I88" s="52">
         <v>6176</v>
@@ -8615,10 +8615,10 @@
         <v>114.872224520693</v>
       </c>
       <c r="M88" s="54">
-        <v>0.84810376499089002</v>
+        <v>0.84810433331845003</v>
       </c>
       <c r="N88" s="55">
-        <v>1.31179073242942</v>
+        <v>1.3117920004594099</v>
       </c>
       <c r="O88" s="55">
         <v>10.281869830323</v>
@@ -8660,7 +8660,7 @@
         <v>23.027104307494302</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="50"/>
       <c r="B89" s="40" t="s">
         <v>167</v>
@@ -8678,10 +8678,10 @@
         <v>1339.4422329291799</v>
       </c>
       <c r="G89" s="54">
-        <v>7.7752774382502601</v>
+        <v>7.76832789774173</v>
       </c>
       <c r="H89" s="55">
-        <v>14.7172367274402</v>
+        <v>14.7071989460874</v>
       </c>
       <c r="I89" s="52">
         <v>422247</v>
@@ -8696,10 +8696,10 @@
         <v>299.29789458118103</v>
       </c>
       <c r="M89" s="54">
-        <v>1.7267704572973299</v>
+        <v>1.72547920906354</v>
       </c>
       <c r="N89" s="55">
-        <v>3.27758794660466</v>
+        <v>3.2760449336654598</v>
       </c>
       <c r="O89" s="55">
         <v>44.740476620992297</v>
@@ -8741,7 +8741,7 @@
         <v>35.5795965054538</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="50"/>
       <c r="B90" s="56" t="s">
         <v>168</v>
@@ -8759,10 +8759,10 @@
         <v>1161.25585839826</v>
       </c>
       <c r="G90" s="59">
-        <v>2.4282613496296301</v>
+        <v>2.42815987849561</v>
       </c>
       <c r="H90" s="60">
-        <v>5.4958374728989998</v>
+        <v>5.4956310336665402</v>
       </c>
       <c r="I90" s="57">
         <v>8503</v>
@@ -8777,10 +8777,10 @@
         <v>23.7211102793345</v>
       </c>
       <c r="M90" s="59">
-        <v>5.0101234396989998E-2</v>
+        <v>5.0135206869079997E-2</v>
       </c>
       <c r="N90" s="60">
-        <v>6.7596769365120005E-2</v>
+        <v>6.7719919936030007E-2</v>
       </c>
       <c r="O90" s="60">
         <v>28.313735702801701</v>
@@ -8822,7 +8822,7 @@
         <v>114.01158505003799</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="50"/>
       <c r="B91" s="61" t="s">
         <v>169</v>
@@ -8840,10 +8840,10 @@
         <v>32.975695052719303</v>
       </c>
       <c r="G91" s="64">
-        <v>1.54857733157056</v>
+        <v>1.5484604467599601</v>
       </c>
       <c r="H91" s="65">
-        <v>3.9187426536746899</v>
+        <v>3.9182305916538001</v>
       </c>
       <c r="I91" s="62">
         <v>486918</v>
@@ -8858,10 +8858,10 @@
         <v>149.706829497011</v>
       </c>
       <c r="M91" s="64">
-        <v>6.9980940424756701</v>
+        <v>6.9984539900285698</v>
       </c>
       <c r="N91" s="65">
-        <v>17.799520668098399</v>
+        <v>17.799811897403298</v>
       </c>
       <c r="O91" s="65">
         <v>6.7732861926830399</v>
@@ -8903,7 +8903,7 @@
         <v>10.110221062339299</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="50"/>
       <c r="B92" s="40" t="s">
         <v>170</v>
@@ -8921,10 +8921,10 @@
         <v>205.36737924542101</v>
       </c>
       <c r="G92" s="54">
-        <v>5.1797867808561104</v>
+        <v>5.1794482261192503</v>
       </c>
       <c r="H92" s="55">
-        <v>11.622236748082299</v>
+        <v>11.622249645985301</v>
       </c>
       <c r="I92" s="52">
         <v>238734</v>
@@ -8939,10 +8939,10 @@
         <v>333.00788968536699</v>
       </c>
       <c r="M92" s="54">
-        <v>8.1936828318877701</v>
+        <v>8.1924124124159494</v>
       </c>
       <c r="N92" s="55">
-        <v>17.897590680954199</v>
+        <v>17.895532762767999</v>
       </c>
       <c r="O92" s="55">
         <v>54.139079457698699</v>
@@ -8984,7 +8984,7 @@
         <v>20.980199257847101</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="50"/>
       <c r="B93" s="40" t="s">
         <v>171</v>
@@ -9002,10 +9002,10 @@
         <v>404.46612731800502</v>
       </c>
       <c r="G93" s="54">
-        <v>4.7192862408085299</v>
+        <v>4.7231354407946498</v>
       </c>
       <c r="H93" s="55">
-        <v>8.0703575423847695</v>
+        <v>8.0894677573568501</v>
       </c>
       <c r="I93" s="52">
         <v>2391</v>
@@ -9020,10 +9020,10 @@
         <v>131.66545154532301</v>
       </c>
       <c r="M93" s="54">
-        <v>1.67659206567248</v>
+        <v>1.65771329728609</v>
       </c>
       <c r="N93" s="55">
-        <v>3.8493932327855398</v>
+        <v>3.7976271114416198</v>
       </c>
       <c r="O93" s="55">
         <v>4.4411050922922204</v>
@@ -9065,7 +9065,7 @@
         <v>22.811130701319101</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="50"/>
       <c r="B94" s="40" t="s">
         <v>172</v>
@@ -9083,10 +9083,10 @@
         <v>508.23843231728301</v>
       </c>
       <c r="G94" s="54">
-        <v>2.6639432279954001</v>
+        <v>2.6625170307197301</v>
       </c>
       <c r="H94" s="55">
-        <v>10.0081339501253</v>
+        <v>10.0085988976299</v>
       </c>
       <c r="I94" s="52">
         <v>28112</v>
@@ -9101,10 +9101,10 @@
         <v>256.33948437836602</v>
       </c>
       <c r="M94" s="54">
-        <v>1.35017174840191</v>
+        <v>1.3511592074466501</v>
       </c>
       <c r="N94" s="55">
-        <v>2.4499761501163402</v>
+        <v>2.45174923674919</v>
       </c>
       <c r="O94" s="55">
         <v>5.6847268344985302</v>
@@ -9146,7 +9146,7 @@
         <v>22.557128282239798</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="50"/>
       <c r="B95" s="40" t="s">
         <v>173</v>
@@ -9164,10 +9164,10 @@
         <v>32.505210771318303</v>
       </c>
       <c r="G95" s="54">
-        <v>1.4664090833735199</v>
+        <v>1.46649738322176</v>
       </c>
       <c r="H95" s="55">
-        <v>3.31537751455883</v>
+        <v>3.3153354269490101</v>
       </c>
       <c r="I95" s="52">
         <v>249366</v>
@@ -9182,10 +9182,10 @@
         <v>153.94291665227601</v>
       </c>
       <c r="M95" s="54">
-        <v>7.2155228838800998</v>
+        <v>7.2158919545602398</v>
       </c>
       <c r="N95" s="55">
-        <v>18.369664701881799</v>
+        <v>18.3696638836571</v>
       </c>
       <c r="O95" s="55">
         <v>6.56927891669066</v>
@@ -9227,7 +9227,7 @@
         <v>9.6551190582255604</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="50"/>
       <c r="B96" s="56" t="s">
         <v>174</v>
@@ -9245,10 +9245,10 @@
         <v>535.41497958265904</v>
       </c>
       <c r="G96" s="59">
-        <v>6.4591118695481002</v>
+        <v>6.4590594282721199</v>
       </c>
       <c r="H96" s="60">
-        <v>12.3147424561439</v>
+        <v>12.3146899523903</v>
       </c>
       <c r="I96" s="57">
         <v>71126</v>
@@ -9263,10 +9263,10 @@
         <v>191.636453629203</v>
       </c>
       <c r="M96" s="59">
-        <v>2.4102458839512702</v>
+        <v>2.4102878655684101</v>
       </c>
       <c r="N96" s="60">
-        <v>5.2296965665651101</v>
+        <v>5.22979610961454</v>
       </c>
       <c r="O96" s="60">
         <v>44.645192033118398</v>
@@ -9308,169 +9308,169 @@
         <v>48.901675602001099</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="50"/>
       <c r="B97" s="61" t="s">
         <v>175</v>
       </c>
       <c r="C97" s="62">
-        <v>189521</v>
+        <v>151565</v>
       </c>
       <c r="D97" s="63">
-        <v>192.88976830182301</v>
+        <v>194.53015348871301</v>
       </c>
       <c r="E97" s="64">
-        <v>5.11886444829263</v>
+        <v>4.9890148902285496</v>
       </c>
       <c r="F97" s="63">
-        <v>88.930981660816101</v>
+        <v>99.856380264071007</v>
       </c>
       <c r="G97" s="64">
-        <v>2.8162027335573998</v>
+        <v>2.8724663545277398</v>
       </c>
       <c r="H97" s="65">
-        <v>6.2616806476161297</v>
+        <v>6.3504854093038396</v>
       </c>
       <c r="I97" s="62">
-        <v>648838</v>
+        <v>502570</v>
       </c>
       <c r="J97" s="63">
-        <v>660.37120680778605</v>
+        <v>645.036909832893</v>
       </c>
       <c r="K97" s="64">
-        <v>17.186536380317001</v>
+        <v>16.920450870827398</v>
       </c>
       <c r="L97" s="63">
-        <v>216.727021859719</v>
+        <v>238.89370811806299</v>
       </c>
       <c r="M97" s="64">
-        <v>6.7355674580362797</v>
+        <v>6.7357527148152201</v>
       </c>
       <c r="N97" s="65">
-        <v>14.9745749126114</v>
+        <v>14.8564527656435</v>
       </c>
       <c r="O97" s="65">
-        <v>7.0053465063051004</v>
+        <v>6.2813352104625801</v>
       </c>
       <c r="P97" s="64">
-        <v>53.950226297576798</v>
+        <v>52.924163752232197</v>
       </c>
       <c r="Q97" s="65">
-        <v>29.2498406573736</v>
+        <v>28.780682623500802</v>
       </c>
       <c r="R97" s="64">
-        <v>48.287325242647</v>
+        <v>40.726000728072698</v>
       </c>
       <c r="S97" s="65">
-        <v>1.47679177403003</v>
+        <v>1.47343130805293</v>
       </c>
       <c r="T97" s="64">
-        <v>489.52746649856402</v>
+        <v>486.05264491258202</v>
       </c>
       <c r="U97" s="64">
-        <v>348.39970787532098</v>
+        <v>342.30966638872502</v>
       </c>
       <c r="V97" s="65">
-        <v>321.79302933866097</v>
+        <v>322.56594355616602</v>
       </c>
       <c r="W97" s="64">
-        <v>16.301704923941401</v>
+        <v>15.2169003382191</v>
       </c>
       <c r="X97" s="65">
-        <v>4.4222331207170802</v>
+        <v>4.18798463255811</v>
       </c>
       <c r="Y97" s="64">
-        <v>51.575756822172202</v>
+        <v>50.405982370350799</v>
       </c>
       <c r="Z97" s="64">
-        <v>24.169107000614201</v>
+        <v>23.722500755001999</v>
       </c>
       <c r="AA97" s="65">
-        <v>11.5568370738187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>12.104469221469699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="50"/>
       <c r="B98" s="56" t="s">
         <v>176</v>
       </c>
       <c r="C98" s="57">
-        <v>366733</v>
+        <v>309098</v>
       </c>
       <c r="D98" s="58">
-        <v>453.08028497205999</v>
+        <v>463.218566831445</v>
       </c>
       <c r="E98" s="59">
-        <v>12.601236223046101</v>
+        <v>12.3684217244649</v>
       </c>
       <c r="F98" s="58">
-        <v>332.56779721687798</v>
+        <v>339.28523209115502</v>
       </c>
       <c r="G98" s="59">
-        <v>5.5022302910274403</v>
+        <v>5.45825549930173</v>
       </c>
       <c r="H98" s="60">
-        <v>13.764076393125899</v>
+        <v>13.1816843695761</v>
       </c>
       <c r="I98" s="57">
-        <v>389203</v>
+        <v>339093</v>
       </c>
       <c r="J98" s="58">
-        <v>480.84084647953898</v>
+        <v>508.169491496467</v>
       </c>
       <c r="K98" s="59">
-        <v>12.1395914362278</v>
+        <v>12.613547866275701</v>
       </c>
       <c r="L98" s="58">
-        <v>255.86193390530599</v>
+        <v>289.16659480733102</v>
       </c>
       <c r="M98" s="59">
-        <v>4.3152344234030497</v>
+        <v>4.66554895556928</v>
       </c>
       <c r="N98" s="60">
-        <v>9.1831150100233998</v>
+        <v>9.7790278440922105</v>
       </c>
       <c r="O98" s="60">
-        <v>37.8529525601976</v>
+        <v>43.865928183693299</v>
       </c>
       <c r="P98" s="59">
-        <v>59.862494316126998</v>
+        <v>61.477639024278297</v>
       </c>
       <c r="Q98" s="60">
-        <v>130.16577658506699</v>
+        <v>129.57615436694499</v>
       </c>
       <c r="R98" s="59">
-        <v>137.60318558706999</v>
+        <v>130.90392630404199</v>
       </c>
       <c r="S98" s="60">
-        <v>4.0201543010830303</v>
+        <v>4.3609665202605798</v>
       </c>
       <c r="T98" s="59">
-        <v>151.19684194073201</v>
+        <v>163.844958978216</v>
       </c>
       <c r="U98" s="59">
-        <v>84.0760788726501</v>
+        <v>89.073115829803399</v>
       </c>
       <c r="V98" s="60">
-        <v>70.392234668963695</v>
+        <v>72.233191160329895</v>
       </c>
       <c r="W98" s="59">
-        <v>40.556117160925801</v>
+        <v>46.840676823802298</v>
       </c>
       <c r="X98" s="60">
-        <v>11.772603053171499</v>
+        <v>12.6408084530577</v>
       </c>
       <c r="Y98" s="59">
-        <v>154.050731441501</v>
+        <v>155.36580139346199</v>
       </c>
       <c r="Z98" s="59">
-        <v>53.518458564417898</v>
+        <v>54.738372205854901</v>
       </c>
       <c r="AA98" s="60">
-        <v>24.5829841066227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
+        <v>27.358695805456101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="66"/>
       <c r="B99" s="67"/>
       <c r="C99" s="42"/>
@@ -9499,7 +9499,7 @@
       <c r="Z99" s="43"/>
       <c r="AA99" s="43"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>177</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="Z100" s="69"/>
       <c r="AA100" s="69"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>178</v>
       </c>
@@ -9547,7 +9547,7 @@
       <c r="Z101" s="69"/>
       <c r="AA101" s="69"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>179</v>
       </c>
@@ -9571,7 +9571,7 @@
       <c r="Z102" s="69"/>
       <c r="AA102" s="69"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>180</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="Z103" s="69"/>
       <c r="AA103" s="69"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>181</v>
       </c>
@@ -9619,7 +9619,7 @@
       <c r="Z104" s="69"/>
       <c r="AA104" s="69"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E105" s="69"/>
       <c r="G105" s="69"/>
       <c r="H105" s="69"/>
@@ -9640,7 +9640,7 @@
       <c r="Z105" s="69"/>
       <c r="AA105" s="69"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E106" s="69"/>
       <c r="G106" s="69"/>
       <c r="H106" s="69"/>
@@ -9661,7 +9661,7 @@
       <c r="Z106" s="69"/>
       <c r="AA106" s="69"/>
     </row>
-    <row r="107" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="70" t="s">
         <v>182</v>
       </c>
@@ -9685,7 +9685,7 @@
       <c r="Z107" s="69"/>
       <c r="AA107" s="69"/>
     </row>
-    <row r="108" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="70"/>
       <c r="E108" s="69"/>
       <c r="G108" s="69"/>
@@ -9707,7 +9707,7 @@
       <c r="Z108" s="69"/>
       <c r="AA108" s="69"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>185</v>
       </c>
@@ -9731,7 +9731,7 @@
       <c r="Z109" s="69"/>
       <c r="AA109" s="69"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>186</v>
       </c>
@@ -9755,7 +9755,7 @@
       <c r="Z110" s="69"/>
       <c r="AA110" s="69"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>187</v>
       </c>
@@ -9779,7 +9779,7 @@
       <c r="Z111" s="69"/>
       <c r="AA111" s="69"/>
     </row>
-    <row r="112" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="2" t="s">
         <v>183</v>
@@ -9804,7 +9804,7 @@
       <c r="Z112" s="69"/>
       <c r="AA112" s="69"/>
     </row>
-    <row r="113" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="2" t="s">
         <v>184</v>
@@ -9829,7 +9829,7 @@
       <c r="Z113" s="69"/>
       <c r="AA113" s="69"/>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="E114" s="69"/>
       <c r="G114" s="69"/>
@@ -9853,12 +9853,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BCEBE3BA-95DE-4A85-ACAA-12185C25F32D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6040A7FD-EBB9-4AC0-BBCA-DD37D7C03771}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{A61C87F1-1ECB-49AB-A3AD-3DA147FF4C8D}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{690CA4D4-3478-4010-9CE6-5A87404C9089}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{31E868CF-CC77-489F-86C8-2ADC8E28838D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{904D1B8B-E79F-41AC-A959-2853E39F2796}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{281EA408-DF4C-478D-A9D6-6FFCD3C9A466}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{DD48B4AE-7755-4591-9630-27A256D7B52C}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{658BD11B-C94F-4B55-A3F8-631B54D9B82E}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{63A3058F-EA2F-4514-BBC8-2427D91CB057}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{C52BC5CB-31B0-4C59-BF9B-F380BEA5A574}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E07C499F-F40F-44D3-9003-A90960F4D4ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
